--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_20_18.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_20_18.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>399383.5293367549</v>
+        <v>450275.6437737592</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>8547013.059513925</v>
+        <v>8636206.831769032</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8673692.685730744</v>
+        <v>8627903.240604855</v>
       </c>
     </row>
     <row r="11">
@@ -658,7 +658,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>146.8461210887086</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -718,16 +718,16 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>187.5255871663197</v>
+        <v>129.3420634549345</v>
       </c>
       <c r="W2" t="n">
-        <v>187.5255871663197</v>
+        <v>146.8461210887086</v>
       </c>
       <c r="X2" t="n">
-        <v>187.5255871663197</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>165.1725371760943</v>
+        <v>146.8461210887086</v>
       </c>
     </row>
     <row r="3">
@@ -746,7 +746,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -755,7 +755,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>100.8417573507397</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -788,7 +788,7 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>149.7702446909496</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
@@ -797,16 +797,16 @@
         <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>187.5255871663197</v>
+        <v>146.8461210887086</v>
       </c>
       <c r="W3" t="n">
-        <v>131.9666290116433</v>
+        <v>146.8461210887086</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>146.8461210887086</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>129.3420634549346</v>
       </c>
     </row>
     <row r="4">
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>52.21594625443417</v>
+        <v>21.41405905276474</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -907,10 +907,10 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>187.5255871663197</v>
+        <v>166.7824266983284</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>166.7824266983284</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -943,16 +943,16 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>77.08171901666384</v>
+        <v>81.59093052713874</v>
       </c>
       <c r="S5" t="n">
-        <v>158.7758131900531</v>
+        <v>160.4115946525719</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>116.8405921356971</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -964,7 +964,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>187.5255871663197</v>
+        <v>71.68186295450549</v>
       </c>
     </row>
     <row r="6">
@@ -986,10 +986,10 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>66.76409028568909</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>136.1637893657753</v>
+        <v>69.37525200342698</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -998,7 +998,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>19.00792621918457</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -1022,10 +1022,10 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>74.81755514382759</v>
       </c>
       <c r="S6" t="n">
-        <v>149.7702446909496</v>
+        <v>150.483654767777</v>
       </c>
       <c r="T6" t="n">
         <v>0</v>
@@ -1034,13 +1034,13 @@
         <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>187.5255871663197</v>
+        <v>166.7824266983284</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>166.7824266983284</v>
       </c>
       <c r="X6" t="n">
-        <v>187.5255871663197</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
         <v>0</v>
@@ -1107,13 +1107,13 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>36.43383855780554</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>52.21594625443417</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -1132,13 +1132,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>187.5255871663197</v>
+        <v>187.5255871663202</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>187.5255871663202</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -1147,7 +1147,7 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>187.5255871663197</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1180,10 +1180,10 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>77.08171901666384</v>
+        <v>77.0817190166637</v>
       </c>
       <c r="S8" t="n">
-        <v>158.7758131900531</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1195,10 +1195,10 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>88.09081815943109</v>
       </c>
       <c r="X8" t="n">
-        <v>116.840592135697</v>
+        <v>187.5255871663202</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -1220,22 +1220,22 @@
         <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>70.33683573771485</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>136.1637893657753</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>100.8417573507397</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>15.37922103265832</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -1259,28 +1259,28 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>72.43289562846314</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>187.5255871663202</v>
       </c>
       <c r="U9" t="n">
-        <v>165.1725371760946</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>187.5255871663197</v>
+        <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>187.5255871663197</v>
+        <v>0</v>
       </c>
       <c r="X9" t="n">
         <v>0</v>
       </c>
       <c r="Y9" t="n">
-        <v>187.5255871663197</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -1347,13 +1347,13 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>52.21594625443417</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>52.2159462544348</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -1381,7 +1381,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>89.48046147214311</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -1390,7 +1390,7 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>41.57692977292598</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1420,10 +1420,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>203.9179701396202</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>250.995171958902</v>
@@ -1438,7 +1438,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>37.28707743115465</v>
       </c>
     </row>
     <row r="12">
@@ -1466,10 +1466,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H12" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I12" t="n">
-        <v>18.8172186824763</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1496,13 +1496,13 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S12" t="n">
         <v>128.1435076414547</v>
       </c>
       <c r="T12" t="n">
-        <v>190.7165703189231</v>
+        <v>190.7165703189229</v>
       </c>
       <c r="U12" t="n">
         <v>225.7871683969286</v>
@@ -1527,16 +1527,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>105.4059921864027</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
@@ -1545,7 +1545,7 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1575,13 +1575,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>93.3588207914797</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -1590,7 +1590,7 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -1606,7 +1606,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>365.2728917710076</v>
@@ -1615,10 +1615,10 @@
         <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>13.79599389631805</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>374.3983094099671</v>
       </c>
       <c r="G14" t="n">
         <v>410.9217256534534</v>
@@ -1627,7 +1627,7 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1660,10 +1660,10 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>203.9179701396202</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1703,10 +1703,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H15" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I15" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1733,10 +1733,10 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0.1429098734089393</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S15" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414548</v>
       </c>
       <c r="T15" t="n">
         <v>190.7165703189231</v>
@@ -1767,10 +1767,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -1779,7 +1779,7 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>124.4272108043264</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1815,10 +1815,10 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>189.7071366421714</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -1827,10 +1827,10 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -1849,7 +1849,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
         <v>381.9303700722618</v>
@@ -1861,10 +1861,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H17" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1894,25 +1894,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701349</v>
+        <v>54.34809064563531</v>
       </c>
       <c r="W17" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>56.17172968953166</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -1970,7 +1970,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S18" t="n">
         <v>128.1435076414547</v>
@@ -2001,7 +2001,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -2016,7 +2016,7 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>154.0776667155541</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2055,22 +2055,22 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>115.0138334144183</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2080,16 +2080,16 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>4.791624857388847</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>199.6929530069991</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
         <v>406.8760457417114</v>
@@ -2098,10 +2098,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H20" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2134,7 +2134,7 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
         <v>250.995171958902</v>
@@ -2146,7 +2146,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
         <v>386.2379386560536</v>
@@ -2177,7 +2177,7 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H21" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851095</v>
       </c>
       <c r="I21" t="n">
         <v>18.81721868247742</v>
@@ -2213,7 +2213,7 @@
         <v>128.1435076414547</v>
       </c>
       <c r="T21" t="n">
-        <v>190.7165703189229</v>
+        <v>190.7165703189231</v>
       </c>
       <c r="U21" t="n">
         <v>225.7871683969286</v>
@@ -2238,22 +2238,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>20.95866062610959</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>136.596523952444</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -2295,13 +2295,13 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -2326,7 +2326,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
         <v>406.8760457417114</v>
@@ -2338,7 +2338,7 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2368,10 +2368,10 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T23" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U23" t="n">
         <v>250.995171958902</v>
@@ -2383,10 +2383,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
-        <v>133.3353942071041</v>
+        <v>19.84006383513595</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="24">
@@ -2414,10 +2414,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H24" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I24" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2444,7 +2444,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S24" t="n">
         <v>128.1435076414547</v>
@@ -2475,7 +2475,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -2487,7 +2487,7 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -2532,7 +2532,7 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U25" t="n">
-        <v>2.155902292902968</v>
+        <v>262.2764898409458</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -2541,7 +2541,7 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -2557,7 +2557,7 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>298.7307299422358</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
         <v>354.683041620683</v>
@@ -2569,10 +2569,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>41.57692977292595</v>
@@ -2620,10 +2620,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>252.7493895559485</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="27">
@@ -2654,7 +2654,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I27" t="n">
-        <v>18.81721868247742</v>
+        <v>18.8172186824772</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2712,13 +2712,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
@@ -2727,7 +2727,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>47.90418220988089</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2766,7 +2766,7 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -2775,13 +2775,13 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>58.28185552386362</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2791,22 +2791,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>152.6608630788531</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
         <v>294.6077643873205</v>
@@ -2845,7 +2845,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U29" t="n">
         <v>250.995171958902</v>
@@ -2860,7 +2860,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
-        <v>335.0722034142582</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -2888,7 +2888,7 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H30" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851095</v>
       </c>
       <c r="I30" t="n">
         <v>18.81721868247742</v>
@@ -2952,19 +2952,19 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>118.8376584678376</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -3003,10 +3003,10 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>107.0704956909093</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -3034,22 +3034,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>108.1032250584723</v>
       </c>
       <c r="F32" t="n">
-        <v>11.37624141617787</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3082,7 +3082,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U32" t="n">
         <v>250.995171958902</v>
@@ -3094,10 +3094,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="33">
@@ -3192,7 +3192,7 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
@@ -3201,7 +3201,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>166.0258082590282</v>
+        <v>118.8376584678378</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3240,7 +3240,7 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -3249,13 +3249,13 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>168.4013722874437</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3274,19 +3274,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>381.9303700722618</v>
+        <v>106.111715575619</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3322,19 +3322,19 @@
         <v>203.9179701396201</v>
       </c>
       <c r="U35" t="n">
-        <v>220.3091963090858</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -3365,7 +3365,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I36" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247723</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3426,7 +3426,7 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -3435,13 +3435,13 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3477,19 +3477,19 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2118382056129</v>
+        <v>136.2706131324337</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>53.54735467376837</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -3502,10 +3502,10 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634806</v>
+        <v>252.3474771205393</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
         <v>354.683041620683</v>
@@ -3514,16 +3514,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>98.46483191979081</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3556,22 +3556,22 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T38" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="39">
@@ -3663,19 +3663,19 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3714,13 +3714,13 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>169.3656682115181</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>246.9514331649695</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -3729,7 +3729,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3739,7 +3739,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
         <v>365.2728917710076</v>
@@ -3748,7 +3748,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>133.5962940431029</v>
       </c>
       <c r="F41" t="n">
         <v>406.8760457417114</v>
@@ -3757,10 +3757,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H41" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>17.80440117964437</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3793,7 +3793,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T41" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
@@ -3900,16 +3900,16 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>99.24581285537874</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>166.0258082590282</v>
@@ -3954,10 +3954,10 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>107.0704956909093</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
@@ -3976,7 +3976,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>265.2105476217911</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
         <v>365.2728917710076</v>
@@ -3985,10 +3985,10 @@
         <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
-        <v>381.9303700722618</v>
+        <v>226.8602185319201</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
         <v>410.9217256534534</v>
@@ -3997,7 +3997,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4036,7 +4036,7 @@
         <v>250.995171958902</v>
       </c>
       <c r="V44" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
         <v>349.240968717413</v>
@@ -4137,10 +4137,10 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>100.2063103874222</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
@@ -4149,7 +4149,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4191,13 +4191,13 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>135.8126782397849</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -4306,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>15.00204697330557</v>
+        <v>11.74768968709669</v>
       </c>
       <c r="C2" t="n">
-        <v>15.00204697330557</v>
+        <v>11.74768968709669</v>
       </c>
       <c r="D2" t="n">
-        <v>15.00204697330557</v>
+        <v>11.74768968709669</v>
       </c>
       <c r="E2" t="n">
-        <v>15.00204697330557</v>
+        <v>11.74768968709669</v>
       </c>
       <c r="F2" t="n">
-        <v>15.00204697330557</v>
+        <v>11.74768968709669</v>
       </c>
       <c r="G2" t="n">
-        <v>15.00204697330557</v>
+        <v>11.74768968709669</v>
       </c>
       <c r="H2" t="n">
-        <v>15.00204697330557</v>
+        <v>11.74768968709669</v>
       </c>
       <c r="I2" t="n">
-        <v>15.00204697330557</v>
+        <v>11.74768968709669</v>
       </c>
       <c r="J2" t="n">
-        <v>21.03371160678483</v>
+        <v>11.74768968709669</v>
       </c>
       <c r="K2" t="n">
-        <v>80.81213159058922</v>
+        <v>53.10181779183017</v>
       </c>
       <c r="L2" t="n">
-        <v>191.8743094079181</v>
+        <v>141.3070323458395</v>
       </c>
       <c r="M2" t="n">
-        <v>347.1218190644749</v>
+        <v>271.1217663066255</v>
       </c>
       <c r="N2" t="n">
-        <v>509.4952041123822</v>
+        <v>407.6508467588559</v>
       </c>
       <c r="O2" t="n">
-        <v>649.4845259985575</v>
+        <v>523.2361246735305</v>
       </c>
       <c r="P2" t="n">
-        <v>734.4611726020256</v>
+        <v>587.3844843548345</v>
       </c>
       <c r="Q2" t="n">
-        <v>750.1023486652787</v>
+        <v>587.3844843548345</v>
       </c>
       <c r="R2" t="n">
-        <v>750.1023486652787</v>
+        <v>587.3844843548345</v>
       </c>
       <c r="S2" t="n">
-        <v>750.1023486652787</v>
+        <v>587.3844843548345</v>
       </c>
       <c r="T2" t="n">
-        <v>750.1023486652787</v>
+        <v>587.3844843548345</v>
       </c>
       <c r="U2" t="n">
-        <v>750.1023486652787</v>
+        <v>587.3844843548345</v>
       </c>
       <c r="V2" t="n">
-        <v>560.6825636487941</v>
+        <v>456.7359354104562</v>
       </c>
       <c r="W2" t="n">
-        <v>371.2627786323096</v>
+        <v>308.4065201693364</v>
       </c>
       <c r="X2" t="n">
-        <v>181.8429936158251</v>
+        <v>308.4065201693364</v>
       </c>
       <c r="Y2" t="n">
-        <v>15.00204697330557</v>
+        <v>160.0771049282165</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>276.0998629391042</v>
+        <v>11.74768968709669</v>
       </c>
       <c r="C3" t="n">
-        <v>276.0998629391042</v>
+        <v>11.74768968709669</v>
       </c>
       <c r="D3" t="n">
-        <v>276.0998629391042</v>
+        <v>11.74768968709669</v>
       </c>
       <c r="E3" t="n">
-        <v>116.8624079336487</v>
+        <v>11.74768968709669</v>
       </c>
       <c r="F3" t="n">
-        <v>116.8624079336487</v>
+        <v>11.74768968709669</v>
       </c>
       <c r="G3" t="n">
-        <v>116.8624079336487</v>
+        <v>11.74768968709669</v>
       </c>
       <c r="H3" t="n">
-        <v>15.00204697330557</v>
+        <v>11.74768968709669</v>
       </c>
       <c r="I3" t="n">
-        <v>15.00204697330557</v>
+        <v>11.74768968709669</v>
       </c>
       <c r="J3" t="n">
-        <v>15.00204697330557</v>
+        <v>11.74768968709669</v>
       </c>
       <c r="K3" t="n">
-        <v>67.13418877024176</v>
+        <v>51.36582106616815</v>
       </c>
       <c r="L3" t="n">
-        <v>183.5548280772645</v>
+        <v>150.9598290415666</v>
       </c>
       <c r="M3" t="n">
-        <v>338.7690911140238</v>
+        <v>286.538206975247</v>
       </c>
       <c r="N3" t="n">
-        <v>512.5000587546594</v>
+        <v>431.9158668530686</v>
       </c>
       <c r="O3" t="n">
-        <v>649.2101578476339</v>
+        <v>550.1875401335673</v>
       </c>
       <c r="P3" t="n">
-        <v>739.5989987017052</v>
+        <v>587.3844843548345</v>
       </c>
       <c r="Q3" t="n">
-        <v>750.1023486652787</v>
+        <v>587.3844843548345</v>
       </c>
       <c r="R3" t="n">
-        <v>750.1023486652787</v>
+        <v>587.3844843548345</v>
       </c>
       <c r="S3" t="n">
-        <v>598.819273219875</v>
+        <v>587.3844843548345</v>
       </c>
       <c r="T3" t="n">
-        <v>598.819273219875</v>
+        <v>587.3844843548345</v>
       </c>
       <c r="U3" t="n">
-        <v>598.819273219875</v>
+        <v>587.3844843548345</v>
       </c>
       <c r="V3" t="n">
-        <v>409.3994882033904</v>
+        <v>439.0550691137147</v>
       </c>
       <c r="W3" t="n">
-        <v>276.0998629391042</v>
+        <v>290.7256538725949</v>
       </c>
       <c r="X3" t="n">
-        <v>276.0998629391042</v>
+        <v>142.396238631475</v>
       </c>
       <c r="Y3" t="n">
-        <v>276.0998629391042</v>
+        <v>11.74768968709669</v>
       </c>
     </row>
     <row r="4">
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>15.00204697330557</v>
+        <v>11.74768968709669</v>
       </c>
       <c r="C4" t="n">
-        <v>15.00204697330557</v>
+        <v>11.74768968709669</v>
       </c>
       <c r="D4" t="n">
-        <v>15.00204697330557</v>
+        <v>11.74768968709669</v>
       </c>
       <c r="E4" t="n">
-        <v>15.00204697330557</v>
+        <v>11.74768968709669</v>
       </c>
       <c r="F4" t="n">
-        <v>15.00204697330557</v>
+        <v>11.74768968709669</v>
       </c>
       <c r="G4" t="n">
-        <v>15.00204697330557</v>
+        <v>11.74768968709669</v>
       </c>
       <c r="H4" t="n">
-        <v>15.00204697330557</v>
+        <v>11.74768968709669</v>
       </c>
       <c r="I4" t="n">
-        <v>15.00204697330557</v>
+        <v>11.74768968709669</v>
       </c>
       <c r="J4" t="n">
-        <v>15.00204697330557</v>
+        <v>11.74768968709669</v>
       </c>
       <c r="K4" t="n">
-        <v>15.00204697330557</v>
+        <v>11.74768968709669</v>
       </c>
       <c r="L4" t="n">
-        <v>27.03967056230168</v>
+        <v>14.1259580354324</v>
       </c>
       <c r="M4" t="n">
-        <v>42.98993985170703</v>
+        <v>19.89179156510269</v>
       </c>
       <c r="N4" t="n">
-        <v>66.41847329396312</v>
+        <v>33.37805236665703</v>
       </c>
       <c r="O4" t="n">
-        <v>67.74542702828958</v>
+        <v>33.37805236665703</v>
       </c>
       <c r="P4" t="n">
-        <v>67.74542702828958</v>
+        <v>33.37805236665703</v>
       </c>
       <c r="Q4" t="n">
-        <v>67.74542702828958</v>
+        <v>33.37805236665703</v>
       </c>
       <c r="R4" t="n">
-        <v>67.74542702828958</v>
+        <v>33.37805236665703</v>
       </c>
       <c r="S4" t="n">
-        <v>67.74542702828958</v>
+        <v>33.37805236665703</v>
       </c>
       <c r="T4" t="n">
-        <v>67.74542702828958</v>
+        <v>33.37805236665703</v>
       </c>
       <c r="U4" t="n">
-        <v>67.74542702828958</v>
+        <v>33.37805236665703</v>
       </c>
       <c r="V4" t="n">
-        <v>15.00204697330557</v>
+        <v>11.74768968709669</v>
       </c>
       <c r="W4" t="n">
-        <v>15.00204697330557</v>
+        <v>11.74768968709669</v>
       </c>
       <c r="X4" t="n">
-        <v>15.00204697330557</v>
+        <v>11.74768968709669</v>
       </c>
       <c r="Y4" t="n">
-        <v>15.00204697330557</v>
+        <v>11.74768968709669</v>
       </c>
     </row>
     <row r="5">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>204.4218319897901</v>
+        <v>350.2767894860247</v>
       </c>
       <c r="C5" t="n">
-        <v>204.4218319897901</v>
+        <v>350.2767894860247</v>
       </c>
       <c r="D5" t="n">
-        <v>204.4218319897901</v>
+        <v>350.2767894860247</v>
       </c>
       <c r="E5" t="n">
-        <v>204.4218319897901</v>
+        <v>350.2767894860247</v>
       </c>
       <c r="F5" t="n">
-        <v>15.00204697330558</v>
+        <v>181.8096918109455</v>
       </c>
       <c r="G5" t="n">
-        <v>15.00204697330558</v>
+        <v>13.34259413586627</v>
       </c>
       <c r="H5" t="n">
-        <v>15.00204697330558</v>
+        <v>13.34259413586627</v>
       </c>
       <c r="I5" t="n">
-        <v>15.00204697330558</v>
+        <v>13.34259413586627</v>
       </c>
       <c r="J5" t="n">
-        <v>21.03371160678489</v>
+        <v>13.34259413586628</v>
       </c>
       <c r="K5" t="n">
-        <v>80.81213159058962</v>
+        <v>64.0811123818437</v>
       </c>
       <c r="L5" t="n">
-        <v>191.8743094079188</v>
+        <v>163.9284927306056</v>
       </c>
       <c r="M5" t="n">
-        <v>347.1218190644756</v>
+        <v>306.6973793432481</v>
       </c>
       <c r="N5" t="n">
-        <v>509.4952041123829</v>
+        <v>456.3902241803917</v>
       </c>
       <c r="O5" t="n">
-        <v>649.484525998558</v>
+        <v>584.4056715233291</v>
       </c>
       <c r="P5" t="n">
-        <v>734.4611726020258</v>
+        <v>659.1628932295217</v>
       </c>
       <c r="Q5" t="n">
-        <v>750.1023486652789</v>
+        <v>667.1297067933136</v>
       </c>
       <c r="R5" t="n">
-        <v>672.2420264262245</v>
+        <v>584.7146254527695</v>
       </c>
       <c r="S5" t="n">
-        <v>511.8624171433426</v>
+        <v>422.6827116622928</v>
       </c>
       <c r="T5" t="n">
-        <v>511.8624171433426</v>
+        <v>422.6827116622928</v>
       </c>
       <c r="U5" t="n">
-        <v>393.8416170062748</v>
+        <v>422.6827116622928</v>
       </c>
       <c r="V5" t="n">
-        <v>393.8416170062748</v>
+        <v>422.6827116622928</v>
       </c>
       <c r="W5" t="n">
-        <v>393.8416170062748</v>
+        <v>422.6827116622928</v>
       </c>
       <c r="X5" t="n">
-        <v>393.8416170062748</v>
+        <v>422.6827116622928</v>
       </c>
       <c r="Y5" t="n">
-        <v>204.4218319897901</v>
+        <v>350.2767894860247</v>
       </c>
     </row>
     <row r="6">
@@ -4622,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>219.979703186906</v>
+        <v>102.6185317344638</v>
       </c>
       <c r="C6" t="n">
-        <v>219.979703186906</v>
+        <v>102.6185317344638</v>
       </c>
       <c r="D6" t="n">
-        <v>219.979703186906</v>
+        <v>102.6185317344638</v>
       </c>
       <c r="E6" t="n">
-        <v>219.979703186906</v>
+        <v>102.6185317344638</v>
       </c>
       <c r="F6" t="n">
-        <v>152.5412281508564</v>
+        <v>102.6185317344638</v>
       </c>
       <c r="G6" t="n">
-        <v>15.00204697330558</v>
+        <v>32.54251960979008</v>
       </c>
       <c r="H6" t="n">
-        <v>15.00204697330558</v>
+        <v>32.54251960979008</v>
       </c>
       <c r="I6" t="n">
-        <v>15.00204697330558</v>
+        <v>32.54251960979008</v>
       </c>
       <c r="J6" t="n">
-        <v>15.00204697330558</v>
+        <v>13.34259413586627</v>
       </c>
       <c r="K6" t="n">
-        <v>67.13418877024199</v>
+        <v>59.33472114872545</v>
       </c>
       <c r="L6" t="n">
-        <v>183.5548280772647</v>
+        <v>167.499352853669</v>
       </c>
       <c r="M6" t="n">
-        <v>338.7690911140239</v>
+        <v>313.0792444295232</v>
       </c>
       <c r="N6" t="n">
-        <v>512.5000587546596</v>
+        <v>450.6888460033937</v>
       </c>
       <c r="O6" t="n">
-        <v>649.2101578476343</v>
+        <v>578.3521085265271</v>
       </c>
       <c r="P6" t="n">
-        <v>739.5989987017055</v>
+        <v>661.4800654501</v>
       </c>
       <c r="Q6" t="n">
-        <v>750.1023486652789</v>
+        <v>667.1297067933136</v>
       </c>
       <c r="R6" t="n">
-        <v>750.1023486652789</v>
+        <v>591.5564187692454</v>
       </c>
       <c r="S6" t="n">
-        <v>598.8192732198752</v>
+        <v>439.5527270846222</v>
       </c>
       <c r="T6" t="n">
-        <v>598.8192732198752</v>
+        <v>439.5527270846222</v>
       </c>
       <c r="U6" t="n">
-        <v>598.8192732198752</v>
+        <v>439.5527270846222</v>
       </c>
       <c r="V6" t="n">
-        <v>409.3994882033906</v>
+        <v>271.085629409543</v>
       </c>
       <c r="W6" t="n">
-        <v>409.3994882033906</v>
+        <v>102.6185317344638</v>
       </c>
       <c r="X6" t="n">
-        <v>219.979703186906</v>
+        <v>102.6185317344638</v>
       </c>
       <c r="Y6" t="n">
-        <v>219.979703186906</v>
+        <v>102.6185317344638</v>
       </c>
     </row>
     <row r="7">
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>15.00204697330558</v>
+        <v>13.34259413586627</v>
       </c>
       <c r="C7" t="n">
-        <v>15.00204697330558</v>
+        <v>13.34259413586627</v>
       </c>
       <c r="D7" t="n">
-        <v>15.00204697330558</v>
+        <v>13.34259413586627</v>
       </c>
       <c r="E7" t="n">
-        <v>15.00204697330558</v>
+        <v>13.34259413586627</v>
       </c>
       <c r="F7" t="n">
-        <v>15.00204697330558</v>
+        <v>13.34259413586627</v>
       </c>
       <c r="G7" t="n">
-        <v>15.00204697330558</v>
+        <v>13.34259413586627</v>
       </c>
       <c r="H7" t="n">
-        <v>15.00204697330558</v>
+        <v>13.34259413586627</v>
       </c>
       <c r="I7" t="n">
-        <v>15.00204697330558</v>
+        <v>13.34259413586627</v>
       </c>
       <c r="J7" t="n">
-        <v>15.00204697330558</v>
+        <v>13.34259413586627</v>
       </c>
       <c r="K7" t="n">
-        <v>15.00204697330558</v>
+        <v>13.34259413586627</v>
       </c>
       <c r="L7" t="n">
-        <v>27.03967056230169</v>
+        <v>20.64084305584018</v>
       </c>
       <c r="M7" t="n">
-        <v>42.98993985170704</v>
+        <v>31.59410626612424</v>
       </c>
       <c r="N7" t="n">
-        <v>66.41847329396313</v>
+        <v>50.14445126496278</v>
       </c>
       <c r="O7" t="n">
-        <v>67.7454270282896</v>
+        <v>50.14445126496278</v>
       </c>
       <c r="P7" t="n">
-        <v>67.7454270282896</v>
+        <v>50.14445126496278</v>
       </c>
       <c r="Q7" t="n">
-        <v>67.7454270282896</v>
+        <v>50.14445126496278</v>
       </c>
       <c r="R7" t="n">
-        <v>67.7454270282896</v>
+        <v>50.14445126496278</v>
       </c>
       <c r="S7" t="n">
-        <v>67.7454270282896</v>
+        <v>50.14445126496278</v>
       </c>
       <c r="T7" t="n">
-        <v>67.7454270282896</v>
+        <v>13.34259413586627</v>
       </c>
       <c r="U7" t="n">
-        <v>67.7454270282896</v>
+        <v>13.34259413586627</v>
       </c>
       <c r="V7" t="n">
-        <v>15.00204697330558</v>
+        <v>13.34259413586627</v>
       </c>
       <c r="W7" t="n">
-        <v>15.00204697330558</v>
+        <v>13.34259413586627</v>
       </c>
       <c r="X7" t="n">
-        <v>15.00204697330558</v>
+        <v>13.34259413586627</v>
       </c>
       <c r="Y7" t="n">
-        <v>15.00204697330558</v>
+        <v>13.34259413586627</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>204.4218319897901</v>
+        <v>204.4218319897907</v>
       </c>
       <c r="C8" t="n">
-        <v>204.4218319897901</v>
+        <v>204.4218319897907</v>
       </c>
       <c r="D8" t="n">
-        <v>204.4218319897901</v>
+        <v>15.00204697330562</v>
       </c>
       <c r="E8" t="n">
-        <v>204.4218319897901</v>
+        <v>15.00204697330562</v>
       </c>
       <c r="F8" t="n">
-        <v>204.4218319897901</v>
+        <v>15.00204697330562</v>
       </c>
       <c r="G8" t="n">
-        <v>15.00204697330557</v>
+        <v>15.00204697330562</v>
       </c>
       <c r="H8" t="n">
-        <v>15.00204697330557</v>
+        <v>15.00204697330562</v>
       </c>
       <c r="I8" t="n">
-        <v>15.00204697330557</v>
+        <v>15.00204697330562</v>
       </c>
       <c r="J8" t="n">
-        <v>21.03371160678483</v>
+        <v>21.03371160678489</v>
       </c>
       <c r="K8" t="n">
-        <v>80.81213159058922</v>
+        <v>80.81213159058962</v>
       </c>
       <c r="L8" t="n">
-        <v>191.8743094079181</v>
+        <v>191.8743094079188</v>
       </c>
       <c r="M8" t="n">
-        <v>347.1218190644749</v>
+        <v>347.121819064476</v>
       </c>
       <c r="N8" t="n">
-        <v>509.4952041123822</v>
+        <v>509.4952041123834</v>
       </c>
       <c r="O8" t="n">
-        <v>649.4845259985575</v>
+        <v>649.4845259985592</v>
       </c>
       <c r="P8" t="n">
-        <v>734.4611726020256</v>
+        <v>734.4611726020275</v>
       </c>
       <c r="Q8" t="n">
-        <v>750.1023486652787</v>
+        <v>750.1023486652808</v>
       </c>
       <c r="R8" t="n">
-        <v>672.2420264262242</v>
+        <v>672.2420264262266</v>
       </c>
       <c r="S8" t="n">
-        <v>511.8624171433423</v>
+        <v>672.2420264262266</v>
       </c>
       <c r="T8" t="n">
-        <v>511.8624171433423</v>
+        <v>672.2420264262266</v>
       </c>
       <c r="U8" t="n">
-        <v>511.8624171433423</v>
+        <v>672.2420264262266</v>
       </c>
       <c r="V8" t="n">
-        <v>511.8624171433423</v>
+        <v>672.2420264262266</v>
       </c>
       <c r="W8" t="n">
-        <v>511.8624171433423</v>
+        <v>583.2614020227609</v>
       </c>
       <c r="X8" t="n">
-        <v>393.8416170062746</v>
+        <v>393.8416170062758</v>
       </c>
       <c r="Y8" t="n">
-        <v>393.8416170062746</v>
+        <v>393.8416170062758</v>
       </c>
     </row>
     <row r="9">
@@ -4859,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>15.00204697330557</v>
+        <v>487.5180226099441</v>
       </c>
       <c r="C9" t="n">
-        <v>15.00204697330557</v>
+        <v>487.5180226099441</v>
       </c>
       <c r="D9" t="n">
-        <v>15.00204697330557</v>
+        <v>487.5180226099441</v>
       </c>
       <c r="E9" t="n">
-        <v>15.00204697330557</v>
+        <v>416.4707137839695</v>
       </c>
       <c r="F9" t="n">
-        <v>15.00204697330557</v>
+        <v>269.9361558108545</v>
       </c>
       <c r="G9" t="n">
-        <v>15.00204697330557</v>
+        <v>132.3969746333036</v>
       </c>
       <c r="H9" t="n">
-        <v>15.00204697330557</v>
+        <v>30.53661367296049</v>
       </c>
       <c r="I9" t="n">
-        <v>15.00204697330557</v>
+        <v>30.53661367296049</v>
       </c>
       <c r="J9" t="n">
-        <v>15.00204697330557</v>
+        <v>15.00204697330562</v>
       </c>
       <c r="K9" t="n">
-        <v>67.13418877024203</v>
+        <v>67.13418877024196</v>
       </c>
       <c r="L9" t="n">
-        <v>183.5548280772647</v>
+        <v>183.554828077265</v>
       </c>
       <c r="M9" t="n">
-        <v>338.7690911140241</v>
+        <v>338.7690911140247</v>
       </c>
       <c r="N9" t="n">
-        <v>512.5000587546598</v>
+        <v>512.5000587546606</v>
       </c>
       <c r="O9" t="n">
-        <v>649.2101578476343</v>
+        <v>649.2101578476354</v>
       </c>
       <c r="P9" t="n">
-        <v>739.5989987017056</v>
+        <v>739.5989987017073</v>
       </c>
       <c r="Q9" t="n">
-        <v>750.102348665279</v>
+        <v>750.1023486652808</v>
       </c>
       <c r="R9" t="n">
-        <v>750.102348665279</v>
+        <v>676.9378076264292</v>
       </c>
       <c r="S9" t="n">
-        <v>750.102348665279</v>
+        <v>676.9378076264292</v>
       </c>
       <c r="T9" t="n">
-        <v>750.102348665279</v>
+        <v>487.5180226099441</v>
       </c>
       <c r="U9" t="n">
-        <v>583.2614020227592</v>
+        <v>487.5180226099441</v>
       </c>
       <c r="V9" t="n">
-        <v>393.8416170062746</v>
+        <v>487.5180226099441</v>
       </c>
       <c r="W9" t="n">
-        <v>204.4218319897901</v>
+        <v>487.5180226099441</v>
       </c>
       <c r="X9" t="n">
-        <v>204.4218319897901</v>
+        <v>487.5180226099441</v>
       </c>
       <c r="Y9" t="n">
-        <v>15.00204697330557</v>
+        <v>487.5180226099441</v>
       </c>
     </row>
     <row r="10">
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>15.00204697330557</v>
+        <v>15.00204697330562</v>
       </c>
       <c r="C10" t="n">
-        <v>15.00204697330557</v>
+        <v>15.00204697330562</v>
       </c>
       <c r="D10" t="n">
-        <v>15.00204697330557</v>
+        <v>15.00204697330562</v>
       </c>
       <c r="E10" t="n">
-        <v>15.00204697330557</v>
+        <v>15.00204697330562</v>
       </c>
       <c r="F10" t="n">
-        <v>15.00204697330557</v>
+        <v>15.00204697330562</v>
       </c>
       <c r="G10" t="n">
-        <v>15.00204697330557</v>
+        <v>15.00204697330562</v>
       </c>
       <c r="H10" t="n">
-        <v>15.00204697330557</v>
+        <v>15.00204697330562</v>
       </c>
       <c r="I10" t="n">
-        <v>15.00204697330557</v>
+        <v>15.00204697330562</v>
       </c>
       <c r="J10" t="n">
-        <v>15.00204697330557</v>
+        <v>15.00204697330562</v>
       </c>
       <c r="K10" t="n">
-        <v>15.00204697330557</v>
+        <v>15.00204697330562</v>
       </c>
       <c r="L10" t="n">
-        <v>27.03967056230168</v>
+        <v>27.03967056230187</v>
       </c>
       <c r="M10" t="n">
-        <v>42.98993985170703</v>
+        <v>42.98993985170739</v>
       </c>
       <c r="N10" t="n">
-        <v>66.41847329396312</v>
+        <v>66.41847329396366</v>
       </c>
       <c r="O10" t="n">
-        <v>67.74542702828958</v>
+        <v>67.74542702829027</v>
       </c>
       <c r="P10" t="n">
-        <v>67.74542702828958</v>
+        <v>67.74542702829027</v>
       </c>
       <c r="Q10" t="n">
-        <v>67.74542702828958</v>
+        <v>67.74542702829027</v>
       </c>
       <c r="R10" t="n">
-        <v>67.74542702828958</v>
+        <v>67.74542702829027</v>
       </c>
       <c r="S10" t="n">
-        <v>67.74542702828958</v>
+        <v>67.74542702829027</v>
       </c>
       <c r="T10" t="n">
-        <v>67.74542702828958</v>
+        <v>67.74542702829027</v>
       </c>
       <c r="U10" t="n">
-        <v>15.00204697330557</v>
+        <v>67.74542702829027</v>
       </c>
       <c r="V10" t="n">
-        <v>15.00204697330557</v>
+        <v>67.74542702829027</v>
       </c>
       <c r="W10" t="n">
-        <v>15.00204697330557</v>
+        <v>15.00204697330562</v>
       </c>
       <c r="X10" t="n">
-        <v>15.00204697330557</v>
+        <v>15.00204697330562</v>
       </c>
       <c r="Y10" t="n">
-        <v>15.00204697330557</v>
+        <v>15.00204697330562</v>
       </c>
     </row>
     <row r="11">
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1311.909787855437</v>
+        <v>1590.514489367197</v>
       </c>
       <c r="C11" t="n">
-        <v>942.9472709150257</v>
+        <v>1221.551972426786</v>
       </c>
       <c r="D11" t="n">
-        <v>584.6815723082752</v>
+        <v>863.2862738200351</v>
       </c>
       <c r="E11" t="n">
-        <v>198.893319710031</v>
+        <v>477.498021221791</v>
       </c>
       <c r="F11" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="G11" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H11" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I11" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J11" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K11" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L11" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M11" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.77673900139</v>
       </c>
       <c r="N11" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O11" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P11" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q11" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R11" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S11" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T11" t="n">
-        <v>3009.337405520488</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U11" t="n">
-        <v>2755.806928794324</v>
+        <v>3072.075344883008</v>
       </c>
       <c r="V11" t="n">
-        <v>2424.744041450753</v>
+        <v>2741.012457539437</v>
       </c>
       <c r="W11" t="n">
-        <v>2071.975386180639</v>
+        <v>2388.243802269323</v>
       </c>
       <c r="X11" t="n">
-        <v>1698.509627919559</v>
+        <v>2014.778044008243</v>
       </c>
       <c r="Y11" t="n">
-        <v>1698.509627919559</v>
+        <v>1977.114329431319</v>
       </c>
     </row>
     <row r="12">
@@ -5096,37 +5096,37 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>941.5438544811075</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C12" t="n">
-        <v>767.0908251999805</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D12" t="n">
-        <v>618.1564155387292</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E12" t="n">
-        <v>458.9189605332737</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F12" t="n">
-        <v>312.3844025601587</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G12" t="n">
-        <v>176.0213023927768</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H12" t="n">
-        <v>85.51940803064433</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I12" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J12" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K12" t="n">
-        <v>398.4535849031478</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L12" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M12" t="n">
         <v>1212.428070438129</v>
@@ -5138,34 +5138,34 @@
         <v>2096.912393410638</v>
       </c>
       <c r="P12" t="n">
-        <v>2407.41198488674</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q12" t="n">
-        <v>2565.05354253334</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R12" t="n">
-        <v>2564.909189125855</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S12" t="n">
-        <v>2435.471302619335</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T12" t="n">
-        <v>2242.828302297191</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U12" t="n">
-        <v>2014.760455431606</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V12" t="n">
-        <v>1779.608347199864</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W12" t="n">
-        <v>1525.370990471662</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X12" t="n">
-        <v>1317.519490266129</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y12" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="13">
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>826.5851666348717</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="C13" t="n">
-        <v>657.6489837069648</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="D13" t="n">
-        <v>507.5323442946291</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="E13" t="n">
-        <v>359.619250712236</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="F13" t="n">
-        <v>212.7293032143256</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="G13" t="n">
-        <v>212.7293032143256</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H13" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I13" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J13" t="n">
-        <v>78.33486996962284</v>
+        <v>78.33486996962289</v>
       </c>
       <c r="K13" t="n">
-        <v>176.6457242372932</v>
+        <v>176.6457242372933</v>
       </c>
       <c r="L13" t="n">
-        <v>332.3555681596504</v>
+        <v>332.3555681596505</v>
       </c>
       <c r="M13" t="n">
-        <v>499.7880494588481</v>
+        <v>499.7880494588484</v>
       </c>
       <c r="N13" t="n">
-        <v>671.0968864886956</v>
+        <v>671.0968864886959</v>
       </c>
       <c r="O13" t="n">
-        <v>809.0152357068853</v>
+        <v>809.0152357068856</v>
       </c>
       <c r="P13" t="n">
-        <v>907.9662384596438</v>
+        <v>907.9662384596443</v>
       </c>
       <c r="Q13" t="n">
-        <v>920.8870058181845</v>
+        <v>920.887005818185</v>
       </c>
       <c r="R13" t="n">
-        <v>920.8870058181845</v>
+        <v>831.0565485757129</v>
       </c>
       <c r="S13" t="n">
-        <v>920.8870058181845</v>
+        <v>831.0565485757129</v>
       </c>
       <c r="T13" t="n">
-        <v>826.5851666348717</v>
+        <v>609.2899331452389</v>
       </c>
       <c r="U13" t="n">
-        <v>826.5851666348717</v>
+        <v>609.2899331452389</v>
       </c>
       <c r="V13" t="n">
-        <v>826.5851666348717</v>
+        <v>609.2899331452389</v>
       </c>
       <c r="W13" t="n">
-        <v>826.5851666348717</v>
+        <v>319.8727631082783</v>
       </c>
       <c r="X13" t="n">
-        <v>826.5851666348717</v>
+        <v>319.8727631082783</v>
       </c>
       <c r="Y13" t="n">
-        <v>826.5851666348717</v>
+        <v>319.8727631082783</v>
       </c>
     </row>
     <row r="14">
@@ -5254,16 +5254,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1675.730933054506</v>
+        <v>2014.778044008243</v>
       </c>
       <c r="C14" t="n">
-        <v>1306.768416114094</v>
+        <v>1645.815527067831</v>
       </c>
       <c r="D14" t="n">
-        <v>948.502717507344</v>
+        <v>1287.549828461081</v>
       </c>
       <c r="E14" t="n">
-        <v>934.5673701373257</v>
+        <v>901.7615758628365</v>
       </c>
       <c r="F14" t="n">
         <v>523.5814653477182</v>
@@ -5275,13 +5275,13 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I14" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J14" t="n">
         <v>255.3912473912096</v>
       </c>
       <c r="K14" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810564</v>
       </c>
       <c r="L14" t="n">
         <v>1040.244834329465</v>
@@ -5293,13 +5293,13 @@
         <v>2120.555556060172</v>
       </c>
       <c r="O14" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P14" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q14" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R14" t="n">
         <v>3325.605821609171</v>
@@ -5308,22 +5308,22 @@
         <v>3325.605821609171</v>
       </c>
       <c r="T14" t="n">
-        <v>3119.628073993393</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U14" t="n">
-        <v>3119.628073993393</v>
+        <v>3072.075344883008</v>
       </c>
       <c r="V14" t="n">
-        <v>2788.565186649822</v>
+        <v>2741.012457539437</v>
       </c>
       <c r="W14" t="n">
-        <v>2435.796531379708</v>
+        <v>2388.243802269323</v>
       </c>
       <c r="X14" t="n">
-        <v>2062.330773118628</v>
+        <v>2014.778044008243</v>
       </c>
       <c r="Y14" t="n">
-        <v>2062.330773118628</v>
+        <v>2014.778044008243</v>
       </c>
     </row>
     <row r="15">
@@ -5354,16 +5354,16 @@
         <v>85.51940803064548</v>
       </c>
       <c r="I15" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J15" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K15" t="n">
-        <v>398.4535849031478</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L15" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M15" t="n">
         <v>1212.428070438129</v>
@@ -5375,10 +5375,10 @@
         <v>2096.912393410638</v>
       </c>
       <c r="P15" t="n">
-        <v>2407.41198488674</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q15" t="n">
-        <v>2565.05354253334</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R15" t="n">
         <v>2564.909189125856</v>
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>511.2489900899275</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="C16" t="n">
-        <v>342.3128071620206</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="D16" t="n">
-        <v>192.1961677496849</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="E16" t="n">
-        <v>192.1961677496849</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="F16" t="n">
-        <v>192.1961677496849</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="G16" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H16" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I16" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J16" t="n">
-        <v>78.33486996962284</v>
+        <v>78.33486996962289</v>
       </c>
       <c r="K16" t="n">
-        <v>176.6457242372932</v>
+        <v>176.6457242372933</v>
       </c>
       <c r="L16" t="n">
-        <v>332.3555681596504</v>
+        <v>332.3555681596505</v>
       </c>
       <c r="M16" t="n">
-        <v>499.7880494588481</v>
+        <v>499.7880494588484</v>
       </c>
       <c r="N16" t="n">
-        <v>671.0968864886956</v>
+        <v>671.0968864886959</v>
       </c>
       <c r="O16" t="n">
-        <v>809.0152357068853</v>
+        <v>809.0152357068856</v>
       </c>
       <c r="P16" t="n">
-        <v>907.9662384596438</v>
+        <v>907.9662384596443</v>
       </c>
       <c r="Q16" t="n">
-        <v>920.8870058181845</v>
+        <v>920.887005818185</v>
       </c>
       <c r="R16" t="n">
-        <v>920.8870058181845</v>
+        <v>920.887005818185</v>
       </c>
       <c r="S16" t="n">
-        <v>920.8870058181845</v>
+        <v>729.2011216450114</v>
       </c>
       <c r="T16" t="n">
-        <v>920.8870058181845</v>
+        <v>537.5777512993837</v>
       </c>
       <c r="U16" t="n">
-        <v>920.8870058181845</v>
+        <v>537.5777512993837</v>
       </c>
       <c r="V16" t="n">
-        <v>920.8870058181845</v>
+        <v>537.5777512993837</v>
       </c>
       <c r="W16" t="n">
-        <v>920.8870058181845</v>
+        <v>248.1605812624231</v>
       </c>
       <c r="X16" t="n">
-        <v>692.8974549201672</v>
+        <v>248.1605812624231</v>
       </c>
       <c r="Y16" t="n">
-        <v>692.8974549201672</v>
+        <v>248.1605812624231</v>
       </c>
     </row>
     <row r="17">
@@ -5491,25 +5491,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1944.904841306683</v>
+        <v>2047.583838282732</v>
       </c>
       <c r="C17" t="n">
-        <v>1575.942324366272</v>
+        <v>1678.62132134232</v>
       </c>
       <c r="D17" t="n">
-        <v>1575.942324366272</v>
+        <v>1320.35562273557</v>
       </c>
       <c r="E17" t="n">
-        <v>1190.154071768027</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="F17" t="n">
-        <v>779.1681669784198</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G17" t="n">
-        <v>364.0957168234162</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H17" t="n">
-        <v>66.51211643218342</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I17" t="n">
         <v>66.51211643218342</v>
@@ -5542,25 +5542,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S17" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T17" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U17" t="n">
-        <v>3072.075344883007</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="V17" t="n">
-        <v>2741.012457539436</v>
+        <v>3160.418091878048</v>
       </c>
       <c r="W17" t="n">
-        <v>2388.243802269322</v>
+        <v>2807.649436607934</v>
       </c>
       <c r="X17" t="n">
-        <v>2388.243802269322</v>
+        <v>2434.183678346854</v>
       </c>
       <c r="Y17" t="n">
-        <v>2331.504681370805</v>
+        <v>2434.183678346854</v>
       </c>
     </row>
     <row r="18">
@@ -5570,43 +5570,43 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C18" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D18" t="n">
-        <v>618.1564155387305</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E18" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F18" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G18" t="n">
-        <v>176.0213023927779</v>
+        <v>176.0213023927781</v>
       </c>
       <c r="H18" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064554</v>
       </c>
       <c r="I18" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J18" t="n">
-        <v>160.1893859228007</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K18" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L18" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158135</v>
       </c>
       <c r="M18" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N18" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O18" t="n">
         <v>2096.912393410638</v>
@@ -5627,7 +5627,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U18" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V18" t="n">
         <v>1779.608347199865</v>
@@ -5636,10 +5636,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X18" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y18" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="19">
@@ -5649,19 +5649,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>222.1461232155714</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="C19" t="n">
-        <v>222.1461232155714</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="D19" t="n">
-        <v>222.1461232155714</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="E19" t="n">
-        <v>222.1461232155714</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="F19" t="n">
-        <v>222.1461232155714</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G19" t="n">
         <v>66.51211643218342</v>
@@ -5703,22 +5703,22 @@
         <v>920.8870058181849</v>
       </c>
       <c r="T19" t="n">
-        <v>920.8870058181849</v>
+        <v>804.7114165106916</v>
       </c>
       <c r="U19" t="n">
-        <v>631.7841389438285</v>
+        <v>804.7114165106916</v>
       </c>
       <c r="V19" t="n">
-        <v>631.7841389438285</v>
+        <v>804.7114165106916</v>
       </c>
       <c r="W19" t="n">
-        <v>631.7841389438285</v>
+        <v>515.2942464737309</v>
       </c>
       <c r="X19" t="n">
-        <v>403.7945880458111</v>
+        <v>287.3046955757135</v>
       </c>
       <c r="Y19" t="n">
-        <v>403.7945880458111</v>
+        <v>66.51211643218342</v>
       </c>
     </row>
     <row r="20">
@@ -5728,25 +5728,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1792.126722677732</v>
+        <v>1619.798686923957</v>
       </c>
       <c r="C20" t="n">
-        <v>1792.126722677732</v>
+        <v>1250.836169983545</v>
       </c>
       <c r="D20" t="n">
-        <v>1433.861024070982</v>
+        <v>892.5704713767946</v>
       </c>
       <c r="E20" t="n">
-        <v>1232.150970528558</v>
+        <v>892.5704713767946</v>
       </c>
       <c r="F20" t="n">
-        <v>821.1650657389509</v>
+        <v>481.5845665871869</v>
       </c>
       <c r="G20" t="n">
-        <v>406.0926155839475</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H20" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I20" t="n">
         <v>66.51211643218342</v>
@@ -5782,22 +5782,22 @@
         <v>3325.605821609171</v>
       </c>
       <c r="T20" t="n">
-        <v>3119.628073993393</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U20" t="n">
-        <v>2866.097597267229</v>
+        <v>3072.075344883007</v>
       </c>
       <c r="V20" t="n">
-        <v>2535.034709923658</v>
+        <v>2741.012457539436</v>
       </c>
       <c r="W20" t="n">
-        <v>2182.266054653544</v>
+        <v>2388.243802269322</v>
       </c>
       <c r="X20" t="n">
-        <v>2182.266054653544</v>
+        <v>2014.778044008242</v>
       </c>
       <c r="Y20" t="n">
-        <v>1792.126722677732</v>
+        <v>1624.63871203243</v>
       </c>
     </row>
     <row r="21">
@@ -5807,22 +5807,22 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811084</v>
       </c>
       <c r="C21" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999814</v>
       </c>
       <c r="D21" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387301</v>
       </c>
       <c r="E21" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332746</v>
       </c>
       <c r="F21" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601596</v>
       </c>
       <c r="G21" t="n">
-        <v>176.0213023927779</v>
+        <v>176.0213023927777</v>
       </c>
       <c r="H21" t="n">
         <v>85.51940803064545</v>
@@ -5864,7 +5864,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U21" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V21" t="n">
         <v>1779.608347199865</v>
@@ -5873,10 +5873,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X21" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y21" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="22">
@@ -5886,19 +5886,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>87.68248070098099</v>
+        <v>649.4080837454732</v>
       </c>
       <c r="C22" t="n">
-        <v>66.51211643218342</v>
+        <v>649.4080837454732</v>
       </c>
       <c r="D22" t="n">
-        <v>66.51211643218342</v>
+        <v>499.2914443331374</v>
       </c>
       <c r="E22" t="n">
-        <v>66.51211643218342</v>
+        <v>351.3783507507443</v>
       </c>
       <c r="F22" t="n">
-        <v>66.51211643218342</v>
+        <v>204.4884032528339</v>
       </c>
       <c r="G22" t="n">
         <v>66.51211643218342</v>
@@ -5934,28 +5934,28 @@
         <v>920.8870058181849</v>
       </c>
       <c r="R22" t="n">
-        <v>920.8870058181849</v>
+        <v>831.0565485757129</v>
       </c>
       <c r="S22" t="n">
-        <v>920.8870058181849</v>
+        <v>831.0565485757129</v>
       </c>
       <c r="T22" t="n">
-        <v>920.8870058181849</v>
+        <v>831.0565485757129</v>
       </c>
       <c r="U22" t="n">
-        <v>631.7841389438285</v>
+        <v>831.0565485757129</v>
       </c>
       <c r="V22" t="n">
-        <v>377.0996507379416</v>
+        <v>831.0565485757129</v>
       </c>
       <c r="W22" t="n">
-        <v>87.68248070098099</v>
+        <v>831.0565485757129</v>
       </c>
       <c r="X22" t="n">
-        <v>87.68248070098099</v>
+        <v>831.0565485757129</v>
       </c>
       <c r="Y22" t="n">
-        <v>87.68248070098099</v>
+        <v>831.0565485757129</v>
       </c>
     </row>
     <row r="23">
@@ -5965,13 +5965,13 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2047.583838282732</v>
+        <v>1661.795585684488</v>
       </c>
       <c r="C23" t="n">
-        <v>1678.62132134232</v>
+        <v>1292.833068744076</v>
       </c>
       <c r="D23" t="n">
-        <v>1320.35562273557</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="E23" t="n">
         <v>934.5673701373257</v>
@@ -5989,19 +5989,19 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J23" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K23" t="n">
-        <v>589.2106210810554</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L23" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M23" t="n">
         <v>1573.776739001389</v>
       </c>
       <c r="N23" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O23" t="n">
         <v>2623.528026939508</v>
@@ -6016,25 +6016,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S23" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T23" t="n">
-        <v>3119.628073993393</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U23" t="n">
-        <v>2866.09759726723</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V23" t="n">
-        <v>2535.034709923659</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="W23" t="n">
-        <v>2182.266054653544</v>
+        <v>2071.975386180639</v>
       </c>
       <c r="X23" t="n">
-        <v>2047.583838282732</v>
+        <v>2051.9349176603</v>
       </c>
       <c r="Y23" t="n">
-        <v>2047.583838282732</v>
+        <v>1661.795585684488</v>
       </c>
     </row>
     <row r="24">
@@ -6044,37 +6044,37 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C24" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D24" t="n">
-        <v>618.1564155387305</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E24" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F24" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G24" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H24" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064554</v>
       </c>
       <c r="I24" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J24" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228005</v>
       </c>
       <c r="K24" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031476</v>
       </c>
       <c r="L24" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158129</v>
       </c>
       <c r="M24" t="n">
         <v>1212.428070438129</v>
@@ -6101,7 +6101,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U24" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V24" t="n">
         <v>1779.608347199865</v>
@@ -6110,10 +6110,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X24" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y24" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="25">
@@ -6123,16 +6123,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>66.51211643218342</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="C25" t="n">
-        <v>66.51211643218342</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="D25" t="n">
-        <v>66.51211643218342</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="E25" t="n">
-        <v>66.51211643218342</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="F25" t="n">
         <v>66.51211643218342</v>
@@ -6147,52 +6147,52 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J25" t="n">
-        <v>78.33486996962287</v>
+        <v>78.33486996962284</v>
       </c>
       <c r="K25" t="n">
-        <v>176.6457242372933</v>
+        <v>176.6457242372932</v>
       </c>
       <c r="L25" t="n">
-        <v>332.3555681596505</v>
+        <v>332.3555681596504</v>
       </c>
       <c r="M25" t="n">
-        <v>499.7880494588483</v>
+        <v>499.7880494588481</v>
       </c>
       <c r="N25" t="n">
-        <v>671.0968864886958</v>
+        <v>671.0968864886956</v>
       </c>
       <c r="O25" t="n">
-        <v>809.0152357068855</v>
+        <v>809.0152357068853</v>
       </c>
       <c r="P25" t="n">
-        <v>907.9662384596442</v>
+        <v>907.9662384596438</v>
       </c>
       <c r="Q25" t="n">
-        <v>920.8870058181849</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="R25" t="n">
-        <v>920.8870058181849</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="S25" t="n">
-        <v>920.8870058181849</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="T25" t="n">
-        <v>699.1203903877109</v>
+        <v>699.1203903877106</v>
       </c>
       <c r="U25" t="n">
-        <v>696.9427113039706</v>
+        <v>434.1946430736239</v>
       </c>
       <c r="V25" t="n">
-        <v>696.9427113039706</v>
+        <v>434.1946430736239</v>
       </c>
       <c r="W25" t="n">
-        <v>696.9427113039706</v>
+        <v>434.1946430736239</v>
       </c>
       <c r="X25" t="n">
-        <v>468.9531604059532</v>
+        <v>434.1946430736239</v>
       </c>
       <c r="Y25" t="n">
-        <v>248.1605812624231</v>
+        <v>213.4020639300938</v>
       </c>
     </row>
     <row r="26">
@@ -6202,22 +6202,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2277.953133796418</v>
+        <v>1632.511388127729</v>
       </c>
       <c r="C26" t="n">
-        <v>1976.204921733553</v>
+        <v>1263.548871187317</v>
       </c>
       <c r="D26" t="n">
-        <v>1617.939223126803</v>
+        <v>905.2831725805665</v>
       </c>
       <c r="E26" t="n">
-        <v>1232.150970528558</v>
+        <v>519.4949199823222</v>
       </c>
       <c r="F26" t="n">
-        <v>821.1650657389509</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="G26" t="n">
-        <v>406.0926155839475</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H26" t="n">
         <v>108.5090151927147</v>
@@ -6268,10 +6268,10 @@
         <v>2277.953133796418</v>
       </c>
       <c r="X26" t="n">
-        <v>2277.953133796418</v>
+        <v>2022.65072010354</v>
       </c>
       <c r="Y26" t="n">
-        <v>2277.953133796418</v>
+        <v>1632.511388127729</v>
       </c>
     </row>
     <row r="27">
@@ -6281,25 +6281,25 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811084</v>
       </c>
       <c r="C27" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999814</v>
       </c>
       <c r="D27" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387301</v>
       </c>
       <c r="E27" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332746</v>
       </c>
       <c r="F27" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601596</v>
       </c>
       <c r="G27" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927777</v>
       </c>
       <c r="H27" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064525</v>
       </c>
       <c r="I27" t="n">
         <v>66.51211643218343</v>
@@ -6338,7 +6338,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U27" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V27" t="n">
         <v>1779.608347199865</v>
@@ -6347,10 +6347,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X27" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y27" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="28">
@@ -6360,19 +6360,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>680.3679798527295</v>
+        <v>409.7032203507504</v>
       </c>
       <c r="C28" t="n">
-        <v>511.4317969248226</v>
+        <v>409.7032203507504</v>
       </c>
       <c r="D28" t="n">
-        <v>361.3151575124869</v>
+        <v>409.7032203507504</v>
       </c>
       <c r="E28" t="n">
-        <v>213.4020639300938</v>
+        <v>261.7901267683573</v>
       </c>
       <c r="F28" t="n">
-        <v>66.51211643218343</v>
+        <v>114.900179270447</v>
       </c>
       <c r="G28" t="n">
         <v>66.51211643218343</v>
@@ -6414,22 +6414,22 @@
         <v>920.887005818185</v>
       </c>
       <c r="T28" t="n">
-        <v>920.887005818185</v>
+        <v>699.120390387711</v>
       </c>
       <c r="U28" t="n">
-        <v>920.887005818185</v>
+        <v>699.120390387711</v>
       </c>
       <c r="V28" t="n">
-        <v>920.887005818185</v>
+        <v>699.120390387711</v>
       </c>
       <c r="W28" t="n">
-        <v>920.887005818185</v>
+        <v>409.7032203507504</v>
       </c>
       <c r="X28" t="n">
-        <v>920.887005818185</v>
+        <v>409.7032203507504</v>
       </c>
       <c r="Y28" t="n">
-        <v>862.0164446829692</v>
+        <v>409.7032203507504</v>
       </c>
     </row>
     <row r="29">
@@ -6439,19 +6439,19 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1179.430764345701</v>
+        <v>1698.509627919559</v>
       </c>
       <c r="C29" t="n">
-        <v>1179.430764345701</v>
+        <v>1329.547110979147</v>
       </c>
       <c r="D29" t="n">
-        <v>821.1650657389509</v>
+        <v>971.2814123723965</v>
       </c>
       <c r="E29" t="n">
-        <v>821.1650657389509</v>
+        <v>817.078520373555</v>
       </c>
       <c r="F29" t="n">
-        <v>821.1650657389509</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="G29" t="n">
         <v>406.0926155839475</v>
@@ -6463,16 +6463,16 @@
         <v>66.5121164321834</v>
       </c>
       <c r="J29" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K29" t="n">
         <v>589.2106210810553</v>
       </c>
       <c r="L29" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M29" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N29" t="n">
         <v>2120.555556060171</v>
@@ -6493,22 +6493,22 @@
         <v>3215.315153136265</v>
       </c>
       <c r="T29" t="n">
-        <v>3215.315153136265</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="U29" t="n">
-        <v>2961.784676410101</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V29" t="n">
-        <v>2630.721789066531</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="W29" t="n">
-        <v>2277.953133796416</v>
+        <v>2071.975386180638</v>
       </c>
       <c r="X29" t="n">
-        <v>1904.487375535336</v>
+        <v>1698.509627919559</v>
       </c>
       <c r="Y29" t="n">
-        <v>1566.030604409823</v>
+        <v>1698.509627919559</v>
       </c>
     </row>
     <row r="30">
@@ -6518,22 +6518,22 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811084</v>
       </c>
       <c r="C30" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999814</v>
       </c>
       <c r="D30" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387301</v>
       </c>
       <c r="E30" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332746</v>
       </c>
       <c r="F30" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601596</v>
       </c>
       <c r="G30" t="n">
-        <v>176.0213023927779</v>
+        <v>176.0213023927777</v>
       </c>
       <c r="H30" t="n">
         <v>85.51940803064545</v>
@@ -6575,7 +6575,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U30" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V30" t="n">
         <v>1779.608347199865</v>
@@ -6584,10 +6584,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X30" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y30" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="31">
@@ -6597,19 +6597,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>234.2149530574644</v>
+        <v>631.4698357812242</v>
       </c>
       <c r="C31" t="n">
-        <v>234.2149530574644</v>
+        <v>511.4317969248226</v>
       </c>
       <c r="D31" t="n">
-        <v>234.2149530574644</v>
+        <v>361.3151575124868</v>
       </c>
       <c r="E31" t="n">
-        <v>234.2149530574644</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="F31" t="n">
-        <v>234.2149530574644</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="G31" t="n">
         <v>66.5121164321834</v>
@@ -6651,22 +6651,22 @@
         <v>920.8870058181849</v>
       </c>
       <c r="T31" t="n">
-        <v>812.7349899687815</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="U31" t="n">
-        <v>523.6321230944251</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="V31" t="n">
-        <v>523.6321230944251</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="W31" t="n">
-        <v>234.2149530574644</v>
+        <v>631.4698357812242</v>
       </c>
       <c r="X31" t="n">
-        <v>234.2149530574644</v>
+        <v>631.4698357812242</v>
       </c>
       <c r="Y31" t="n">
-        <v>234.2149530574644</v>
+        <v>631.4698357812242</v>
       </c>
     </row>
     <row r="32">
@@ -6676,25 +6676,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1517.887535471216</v>
+        <v>1295.236214140706</v>
       </c>
       <c r="C32" t="n">
-        <v>1148.925018530804</v>
+        <v>926.2736972002947</v>
       </c>
       <c r="D32" t="n">
-        <v>790.659319924054</v>
+        <v>926.2736972002947</v>
       </c>
       <c r="E32" t="n">
-        <v>790.659319924054</v>
+        <v>817.078520373555</v>
       </c>
       <c r="F32" t="n">
-        <v>779.1681669784198</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="G32" t="n">
-        <v>364.0957168234162</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H32" t="n">
-        <v>66.51211643218343</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I32" t="n">
         <v>66.51211643218343</v>
@@ -6730,22 +6730,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T32" t="n">
-        <v>3215.315153136266</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U32" t="n">
-        <v>2961.784676410103</v>
+        <v>2755.806928794325</v>
       </c>
       <c r="V32" t="n">
-        <v>2630.721789066532</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="W32" t="n">
-        <v>2277.953133796418</v>
+        <v>2071.97538618064</v>
       </c>
       <c r="X32" t="n">
-        <v>1904.487375535338</v>
+        <v>2071.97538618064</v>
       </c>
       <c r="Y32" t="n">
-        <v>1904.487375535338</v>
+        <v>1681.836054204828</v>
       </c>
     </row>
     <row r="33">
@@ -6773,19 +6773,19 @@
         <v>176.0213023927781</v>
       </c>
       <c r="H33" t="n">
-        <v>85.51940803064576</v>
+        <v>85.51940803064554</v>
       </c>
       <c r="I33" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J33" t="n">
-        <v>160.1893859228006</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K33" t="n">
-        <v>398.4535849031476</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L33" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158133</v>
       </c>
       <c r="M33" t="n">
         <v>1212.428070438129</v>
@@ -6834,19 +6834,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>529.0179941377679</v>
+        <v>631.4698357812244</v>
       </c>
       <c r="C34" t="n">
-        <v>529.0179941377679</v>
+        <v>631.4698357812244</v>
       </c>
       <c r="D34" t="n">
-        <v>529.0179941377679</v>
+        <v>481.3531963688887</v>
       </c>
       <c r="E34" t="n">
-        <v>381.1049005553748</v>
+        <v>333.4401027864956</v>
       </c>
       <c r="F34" t="n">
-        <v>234.2149530574645</v>
+        <v>186.5501552885852</v>
       </c>
       <c r="G34" t="n">
         <v>66.51211643218343</v>
@@ -6888,22 +6888,22 @@
         <v>920.887005818185</v>
       </c>
       <c r="T34" t="n">
-        <v>699.120390387711</v>
+        <v>920.887005818185</v>
       </c>
       <c r="U34" t="n">
-        <v>699.120390387711</v>
+        <v>920.887005818185</v>
       </c>
       <c r="V34" t="n">
-        <v>699.120390387711</v>
+        <v>920.887005818185</v>
       </c>
       <c r="W34" t="n">
-        <v>699.120390387711</v>
+        <v>631.4698357812244</v>
       </c>
       <c r="X34" t="n">
-        <v>699.120390387711</v>
+        <v>631.4698357812244</v>
       </c>
       <c r="Y34" t="n">
-        <v>529.0179941377679</v>
+        <v>631.4698357812244</v>
       </c>
     </row>
     <row r="35">
@@ -6913,34 +6913,34 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1636.597933493125</v>
+        <v>1311.909787855437</v>
       </c>
       <c r="C35" t="n">
-        <v>1267.635416552713</v>
+        <v>942.9472709150252</v>
       </c>
       <c r="D35" t="n">
-        <v>909.3697179459625</v>
+        <v>584.6815723082748</v>
       </c>
       <c r="E35" t="n">
-        <v>523.5814653477182</v>
+        <v>477.498021221791</v>
       </c>
       <c r="F35" t="n">
-        <v>523.5814653477182</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="G35" t="n">
-        <v>108.5090151927147</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H35" t="n">
-        <v>108.5090151927147</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I35" t="n">
         <v>66.5121164321834</v>
       </c>
       <c r="J35" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K35" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810555</v>
       </c>
       <c r="L35" t="n">
         <v>1040.244834329464</v>
@@ -6970,19 +6970,19 @@
         <v>3009.337405520487</v>
       </c>
       <c r="U35" t="n">
-        <v>2786.802863794138</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V35" t="n">
-        <v>2786.802863794138</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="W35" t="n">
-        <v>2786.802863794138</v>
+        <v>2071.975386180638</v>
       </c>
       <c r="X35" t="n">
-        <v>2413.337105533058</v>
+        <v>1698.509627919559</v>
       </c>
       <c r="Y35" t="n">
-        <v>2023.197773557246</v>
+        <v>1698.509627919559</v>
       </c>
     </row>
     <row r="36">
@@ -6992,25 +6992,25 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811084</v>
       </c>
       <c r="C36" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999814</v>
       </c>
       <c r="D36" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387301</v>
       </c>
       <c r="E36" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332746</v>
       </c>
       <c r="F36" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601596</v>
       </c>
       <c r="G36" t="n">
-        <v>176.0213023927779</v>
+        <v>176.0213023927777</v>
       </c>
       <c r="H36" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064525</v>
       </c>
       <c r="I36" t="n">
         <v>66.5121164321834</v>
@@ -7049,7 +7049,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U36" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V36" t="n">
         <v>1779.608347199865</v>
@@ -7058,10 +7058,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X36" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y36" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="37">
@@ -7071,22 +7071,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>66.5121164321834</v>
+        <v>528.5554336401428</v>
       </c>
       <c r="C37" t="n">
-        <v>66.5121164321834</v>
+        <v>359.619250712236</v>
       </c>
       <c r="D37" t="n">
-        <v>66.5121164321834</v>
+        <v>359.619250712236</v>
       </c>
       <c r="E37" t="n">
-        <v>66.5121164321834</v>
+        <v>359.619250712236</v>
       </c>
       <c r="F37" t="n">
-        <v>66.5121164321834</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="G37" t="n">
-        <v>66.5121164321834</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="H37" t="n">
         <v>66.5121164321834</v>
@@ -7125,22 +7125,22 @@
         <v>920.8870058181849</v>
       </c>
       <c r="T37" t="n">
-        <v>699.1203903877109</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="U37" t="n">
-        <v>410.0175235133545</v>
+        <v>783.2399218460297</v>
       </c>
       <c r="V37" t="n">
-        <v>410.0175235133545</v>
+        <v>528.5554336401428</v>
       </c>
       <c r="W37" t="n">
-        <v>120.6003534763939</v>
+        <v>528.5554336401428</v>
       </c>
       <c r="X37" t="n">
-        <v>66.5121164321834</v>
+        <v>528.5554336401428</v>
       </c>
       <c r="Y37" t="n">
-        <v>66.5121164321834</v>
+        <v>528.5554336401428</v>
       </c>
     </row>
     <row r="38">
@@ -7150,40 +7150,40 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1664.678443125553</v>
+        <v>1590.514489367197</v>
       </c>
       <c r="C38" t="n">
-        <v>1664.678443125553</v>
+        <v>1221.551972426786</v>
       </c>
       <c r="D38" t="n">
-        <v>1306.412744518802</v>
+        <v>863.2862738200351</v>
       </c>
       <c r="E38" t="n">
-        <v>920.6244919205578</v>
+        <v>477.498021221791</v>
       </c>
       <c r="F38" t="n">
-        <v>821.1650657389509</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="G38" t="n">
-        <v>406.0926155839475</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H38" t="n">
-        <v>108.5090151927147</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I38" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J38" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K38" t="n">
-        <v>589.2106210810554</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L38" t="n">
         <v>1040.244834329464</v>
       </c>
       <c r="M38" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N38" t="n">
         <v>2120.555556060171</v>
@@ -7198,28 +7198,28 @@
         <v>3266.588755052368</v>
       </c>
       <c r="R38" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S38" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T38" t="n">
-        <v>3009.337405520489</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="U38" t="n">
-        <v>2755.806928794325</v>
+        <v>2961.784676410101</v>
       </c>
       <c r="V38" t="n">
-        <v>2424.744041450754</v>
+        <v>2961.784676410101</v>
       </c>
       <c r="W38" t="n">
-        <v>2424.744041450754</v>
+        <v>2609.016021139987</v>
       </c>
       <c r="X38" t="n">
-        <v>2051.278283189674</v>
+        <v>2235.550262878907</v>
       </c>
       <c r="Y38" t="n">
-        <v>2051.278283189674</v>
+        <v>1845.410930903096</v>
       </c>
     </row>
     <row r="39">
@@ -7244,16 +7244,16 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G39" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H39" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I39" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J39" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K39" t="n">
         <v>398.4535849031479</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>529.0179941377679</v>
+        <v>382.3382468580007</v>
       </c>
       <c r="C40" t="n">
-        <v>529.0179941377679</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="D40" t="n">
-        <v>529.0179941377679</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="E40" t="n">
-        <v>381.1049005553748</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="F40" t="n">
-        <v>234.2149530574645</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="G40" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H40" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I40" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J40" t="n">
-        <v>78.33486996962289</v>
+        <v>78.33486996962286</v>
       </c>
       <c r="K40" t="n">
-        <v>176.6457242372933</v>
+        <v>176.6457242372932</v>
       </c>
       <c r="L40" t="n">
         <v>332.3555681596505</v>
       </c>
       <c r="M40" t="n">
-        <v>499.7880494588484</v>
+        <v>499.7880494588483</v>
       </c>
       <c r="N40" t="n">
-        <v>671.0968864886959</v>
+        <v>671.0968864886958</v>
       </c>
       <c r="O40" t="n">
-        <v>809.0152357068856</v>
+        <v>809.0152357068855</v>
       </c>
       <c r="P40" t="n">
-        <v>907.9662384596443</v>
+        <v>907.9662384596442</v>
       </c>
       <c r="Q40" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="R40" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="S40" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="T40" t="n">
-        <v>749.810573281298</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="U40" t="n">
-        <v>749.810573281298</v>
+        <v>631.7841389438285</v>
       </c>
       <c r="V40" t="n">
-        <v>749.810573281298</v>
+        <v>382.3382468580007</v>
       </c>
       <c r="W40" t="n">
-        <v>749.810573281298</v>
+        <v>382.3382468580007</v>
       </c>
       <c r="X40" t="n">
-        <v>749.810573281298</v>
+        <v>382.3382468580007</v>
       </c>
       <c r="Y40" t="n">
-        <v>529.0179941377679</v>
+        <v>382.3382468580007</v>
       </c>
     </row>
     <row r="41">
@@ -7387,43 +7387,43 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1935.366530930992</v>
+        <v>1754.744438482647</v>
       </c>
       <c r="C41" t="n">
-        <v>1566.40401399058</v>
+        <v>1385.781921542235</v>
       </c>
       <c r="D41" t="n">
-        <v>1208.13831538383</v>
+        <v>1027.516222935484</v>
       </c>
       <c r="E41" t="n">
-        <v>1208.13831538383</v>
+        <v>892.5704713767946</v>
       </c>
       <c r="F41" t="n">
-        <v>797.1524105942221</v>
+        <v>481.5845665871869</v>
       </c>
       <c r="G41" t="n">
-        <v>382.0799604392186</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H41" t="n">
-        <v>84.49636004798583</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I41" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J41" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K41" t="n">
-        <v>589.2106210810559</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L41" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M41" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N41" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O41" t="n">
         <v>2623.528026939508</v>
@@ -7432,31 +7432,31 @@
         <v>3018.302393296686</v>
       </c>
       <c r="Q41" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R41" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S41" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T41" t="n">
-        <v>3009.337405520489</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="U41" t="n">
-        <v>3009.337405520489</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="V41" t="n">
-        <v>2678.274518176918</v>
+        <v>2884.252265792694</v>
       </c>
       <c r="W41" t="n">
-        <v>2325.505862906803</v>
+        <v>2531.48361052258</v>
       </c>
       <c r="X41" t="n">
-        <v>2325.505862906803</v>
+        <v>2531.48361052258</v>
       </c>
       <c r="Y41" t="n">
-        <v>1935.366530930992</v>
+        <v>2141.344278546768</v>
       </c>
     </row>
     <row r="42">
@@ -7481,16 +7481,16 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G42" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H42" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I42" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J42" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K42" t="n">
         <v>398.4535849031479</v>
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>631.4698357812244</v>
+        <v>234.2149530574644</v>
       </c>
       <c r="C43" t="n">
-        <v>531.2215399677106</v>
+        <v>234.2149530574644</v>
       </c>
       <c r="D43" t="n">
-        <v>381.1049005553748</v>
+        <v>234.2149530574644</v>
       </c>
       <c r="E43" t="n">
-        <v>381.1049005553748</v>
+        <v>234.2149530574644</v>
       </c>
       <c r="F43" t="n">
-        <v>234.2149530574645</v>
+        <v>234.2149530574644</v>
       </c>
       <c r="G43" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H43" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I43" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J43" t="n">
-        <v>78.33486996962289</v>
+        <v>78.33486996962286</v>
       </c>
       <c r="K43" t="n">
-        <v>176.6457242372933</v>
+        <v>176.6457242372932</v>
       </c>
       <c r="L43" t="n">
         <v>332.3555681596505</v>
       </c>
       <c r="M43" t="n">
-        <v>499.7880494588484</v>
+        <v>499.7880494588483</v>
       </c>
       <c r="N43" t="n">
-        <v>671.0968864886959</v>
+        <v>671.0968864886958</v>
       </c>
       <c r="O43" t="n">
-        <v>809.0152357068856</v>
+        <v>809.0152357068855</v>
       </c>
       <c r="P43" t="n">
-        <v>907.9662384596443</v>
+        <v>907.9662384596442</v>
       </c>
       <c r="Q43" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="R43" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="S43" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="T43" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="U43" t="n">
-        <v>920.887005818185</v>
+        <v>631.7841389438285</v>
       </c>
       <c r="V43" t="n">
-        <v>920.887005818185</v>
+        <v>523.6321230944251</v>
       </c>
       <c r="W43" t="n">
-        <v>631.4698357812244</v>
+        <v>234.2149530574644</v>
       </c>
       <c r="X43" t="n">
-        <v>631.4698357812244</v>
+        <v>234.2149530574644</v>
       </c>
       <c r="Y43" t="n">
-        <v>631.4698357812244</v>
+        <v>234.2149530574644</v>
       </c>
     </row>
     <row r="44">
@@ -7624,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1636.597933493125</v>
+        <v>1848.950422814785</v>
       </c>
       <c r="C44" t="n">
-        <v>1267.635416552713</v>
+        <v>1479.987905874373</v>
       </c>
       <c r="D44" t="n">
-        <v>909.3697179459625</v>
+        <v>1121.722207267623</v>
       </c>
       <c r="E44" t="n">
-        <v>523.5814653477182</v>
+        <v>892.5704713767946</v>
       </c>
       <c r="F44" t="n">
-        <v>523.5814653477182</v>
+        <v>481.5845665871869</v>
       </c>
       <c r="G44" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="H44" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I44" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J44" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K44" t="n">
-        <v>589.2106210810562</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L44" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M44" t="n">
-        <v>1573.77673900139</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N44" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O44" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P44" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q44" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052367</v>
       </c>
       <c r="R44" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S44" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T44" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="U44" t="n">
-        <v>2961.784676410103</v>
+        <v>2961.784676410101</v>
       </c>
       <c r="V44" t="n">
-        <v>2630.721789066532</v>
+        <v>2961.784676410101</v>
       </c>
       <c r="W44" t="n">
-        <v>2277.953133796418</v>
+        <v>2609.016021139987</v>
       </c>
       <c r="X44" t="n">
-        <v>1904.487375535338</v>
+        <v>2235.550262878907</v>
       </c>
       <c r="Y44" t="n">
-        <v>1904.487375535338</v>
+        <v>2235.550262878907</v>
       </c>
     </row>
     <row r="45">
@@ -7724,7 +7724,7 @@
         <v>85.51940803064576</v>
       </c>
       <c r="I45" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J45" t="n">
         <v>160.1893859228007</v>
@@ -7733,7 +7733,7 @@
         <v>398.4535849031479</v>
       </c>
       <c r="L45" t="n">
-        <v>765.1517452158131</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M45" t="n">
         <v>1212.428070438129</v>
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>529.0179941377679</v>
+        <v>631.4698357812242</v>
       </c>
       <c r="C46" t="n">
-        <v>529.0179941377679</v>
+        <v>462.5336528533173</v>
       </c>
       <c r="D46" t="n">
-        <v>529.0179941377679</v>
+        <v>361.3151575124868</v>
       </c>
       <c r="E46" t="n">
-        <v>381.1049005553748</v>
+        <v>213.4020639300937</v>
       </c>
       <c r="F46" t="n">
-        <v>234.2149530574645</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="G46" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="H46" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I46" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J46" t="n">
-        <v>78.33486996962289</v>
+        <v>78.33486996962284</v>
       </c>
       <c r="K46" t="n">
-        <v>176.6457242372933</v>
+        <v>176.6457242372932</v>
       </c>
       <c r="L46" t="n">
         <v>332.3555681596505</v>
       </c>
       <c r="M46" t="n">
-        <v>499.7880494588484</v>
+        <v>499.7880494588483</v>
       </c>
       <c r="N46" t="n">
-        <v>671.0968864886959</v>
+        <v>671.0968864886958</v>
       </c>
       <c r="O46" t="n">
-        <v>809.0152357068856</v>
+        <v>809.0152357068855</v>
       </c>
       <c r="P46" t="n">
-        <v>907.9662384596443</v>
+        <v>907.9662384596442</v>
       </c>
       <c r="Q46" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="R46" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="S46" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="T46" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="U46" t="n">
-        <v>783.7024823436548</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="V46" t="n">
-        <v>529.0179941377679</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="W46" t="n">
-        <v>529.0179941377679</v>
+        <v>631.4698357812242</v>
       </c>
       <c r="X46" t="n">
-        <v>529.0179941377679</v>
+        <v>631.4698357812242</v>
       </c>
       <c r="Y46" t="n">
-        <v>529.0179941377679</v>
+        <v>631.4698357812242</v>
       </c>
     </row>
   </sheetData>
@@ -22546,7 +22546,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>235.8877205747719</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -22561,16 +22561,16 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>413.097833230058</v>
+        <v>413.2441370602317</v>
       </c>
       <c r="H2" t="n">
-        <v>316.8938261062223</v>
+        <v>318.3921602069877</v>
       </c>
       <c r="I2" t="n">
-        <v>125.4713171199748</v>
+        <v>131.1116955327425</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>6.324764167328794</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -22594,28 +22594,28 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>77.08171901666384</v>
+        <v>86.27197698880639</v>
       </c>
       <c r="S2" t="n">
-        <v>158.7758131900531</v>
+        <v>162.1097117201341</v>
       </c>
       <c r="T2" t="n">
-        <v>213.4438810562068</v>
+        <v>214.0843260727917</v>
       </c>
       <c r="U2" t="n">
-        <v>251.1692605650303</v>
+        <v>251.1809648714442</v>
       </c>
       <c r="V2" t="n">
-        <v>140.2266713038152</v>
+        <v>198.4101950152004</v>
       </c>
       <c r="W2" t="n">
-        <v>161.7153815510933</v>
+        <v>202.3948476287044</v>
       </c>
       <c r="X2" t="n">
-        <v>182.2055135121494</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>221.0654014799593</v>
+        <v>239.391817567345</v>
       </c>
     </row>
     <row r="3">
@@ -22634,22 +22634,22 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>136.1637893657753</v>
+        <v>136.2420688160423</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>101.5977720414757</v>
       </c>
       <c r="I3" t="n">
-        <v>58.90455890409151</v>
+        <v>61.59970664354543</v>
       </c>
       <c r="J3" t="n">
-        <v>15.37922103265844</v>
+        <v>22.77491242827334</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -22673,28 +22673,28 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>72.43289562846323</v>
+        <v>77.29308816345809</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>151.2242511465658</v>
       </c>
       <c r="T3" t="n">
-        <v>195.4095977920013</v>
+        <v>195.7251189095246</v>
       </c>
       <c r="U3" t="n">
-        <v>225.8637684100909</v>
+        <v>225.8689183739243</v>
       </c>
       <c r="V3" t="n">
-        <v>45.2749999831056</v>
+        <v>85.95446606071664</v>
       </c>
       <c r="W3" t="n">
-        <v>119.7283541492763</v>
+        <v>104.848862072211</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034775</v>
+        <v>58.92686411476885</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.6826957773044</v>
+        <v>76.3406323223698</v>
       </c>
     </row>
     <row r="4">
@@ -22719,19 +22719,19 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>167.0019352027142</v>
+        <v>167.0675620642408</v>
       </c>
       <c r="H4" t="n">
-        <v>153.4336708318196</v>
+        <v>154.0171532915746</v>
       </c>
       <c r="I4" t="n">
-        <v>125.7072197708667</v>
+        <v>127.6807984793224</v>
       </c>
       <c r="J4" t="n">
-        <v>57.06999962825421</v>
+        <v>61.70981873818782</v>
       </c>
       <c r="K4" t="n">
-        <v>14.10430989402857</v>
+        <v>21.7289579877603</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -22743,28 +22743,28 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>7.935701265474393</v>
       </c>
       <c r="P4" t="n">
-        <v>18.10760906709392</v>
+        <v>26.04487966482527</v>
       </c>
       <c r="Q4" t="n">
-        <v>68.68604055159729</v>
+        <v>74.1813952927055</v>
       </c>
       <c r="R4" t="n">
-        <v>132.8223696106904</v>
+        <v>135.7731919480611</v>
       </c>
       <c r="S4" t="n">
-        <v>206.7802557954962</v>
+        <v>207.923953009556</v>
       </c>
       <c r="T4" t="n">
-        <v>223.7196734901001</v>
+        <v>224.0000791711685</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2650814934503</v>
+        <v>286.2686611404426</v>
       </c>
       <c r="V4" t="n">
-        <v>199.9216970693938</v>
+        <v>230.7235842710633</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
@@ -22795,16 +22795,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>219.3504585753917</v>
+        <v>240.093619043383</v>
       </c>
       <c r="G5" t="n">
-        <v>413.097833230058</v>
+        <v>246.3871906880662</v>
       </c>
       <c r="H5" t="n">
-        <v>316.8938261062223</v>
+        <v>317.6289855973038</v>
       </c>
       <c r="I5" t="n">
-        <v>125.4713171199748</v>
+        <v>128.238775807139</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -22837,10 +22837,10 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>213.4438810562068</v>
+        <v>213.75811620057</v>
       </c>
       <c r="U5" t="n">
-        <v>134.3286684293332</v>
+        <v>251.1750032975372</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -22852,7 +22852,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>198.7123514897339</v>
+        <v>314.5560757015481</v>
       </c>
     </row>
     <row r="6">
@@ -22874,19 +22874,19 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>78.30512210769479</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>66.82694527203351</v>
       </c>
       <c r="H6" t="n">
-        <v>100.8417573507397</v>
+        <v>101.2126968995411</v>
       </c>
       <c r="I6" t="n">
-        <v>58.90455890409151</v>
+        <v>60.22693649632168</v>
       </c>
       <c r="J6" t="n">
-        <v>15.37922103265844</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -22910,25 +22910,25 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>72.43289562846323</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>195.4095977920013</v>
+        <v>195.5644086209515</v>
       </c>
       <c r="U6" t="n">
-        <v>225.8637684100909</v>
+        <v>225.8662952462544</v>
       </c>
       <c r="V6" t="n">
-        <v>45.27499998310554</v>
+        <v>66.01816045109686</v>
       </c>
       <c r="W6" t="n">
-        <v>251.6949831609196</v>
+        <v>84.9125564625912</v>
       </c>
       <c r="X6" t="n">
-        <v>18.24739803715775</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
         <v>205.6826957773044</v>
@@ -22956,19 +22956,19 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>167.0019352027142</v>
+        <v>167.0341351039889</v>
       </c>
       <c r="H7" t="n">
-        <v>153.4336708318196</v>
+        <v>153.7199572267894</v>
       </c>
       <c r="I7" t="n">
-        <v>125.7072197708667</v>
+        <v>126.6755586201103</v>
       </c>
       <c r="J7" t="n">
-        <v>57.06999962825421</v>
+        <v>59.3465326483775</v>
       </c>
       <c r="K7" t="n">
-        <v>14.10430989402857</v>
+        <v>17.84535296940157</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -22980,28 +22980,28 @@
         <v>0</v>
       </c>
       <c r="O7" t="n">
-        <v>0</v>
+        <v>3.210952374594797</v>
       </c>
       <c r="P7" t="n">
-        <v>18.10760906709392</v>
+        <v>22.00204076308472</v>
       </c>
       <c r="Q7" t="n">
-        <v>68.68604055159729</v>
+        <v>71.38234319379296</v>
       </c>
       <c r="R7" t="n">
-        <v>132.8223696106904</v>
+        <v>134.2701942625523</v>
       </c>
       <c r="S7" t="n">
-        <v>206.7802557954962</v>
+        <v>207.3414122568022</v>
       </c>
       <c r="T7" t="n">
-        <v>223.7196734901001</v>
+        <v>187.4234163286502</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2650814934503</v>
+        <v>286.2668378517016</v>
       </c>
       <c r="V7" t="n">
-        <v>199.9216970693938</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -23020,13 +23020,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>195.2082544971609</v>
+        <v>195.2082544971604</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>167.1574544543627</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
@@ -23035,13 +23035,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>225.5722460637384</v>
+        <v>413.097833230058</v>
       </c>
       <c r="H8" t="n">
         <v>316.8938261062223</v>
       </c>
       <c r="I8" t="n">
-        <v>125.4713171199748</v>
+        <v>125.4713171199747</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -23071,7 +23071,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>158.7758131900531</v>
       </c>
       <c r="T8" t="n">
         <v>213.4438810562068</v>
@@ -23083,10 +23083,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>261.1501505579819</v>
       </c>
       <c r="X8" t="n">
-        <v>252.890508542772</v>
+        <v>182.2055135121488</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -23108,22 +23108,22 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
-        <v>157.6450804554009</v>
+        <v>87.30824471768609</v>
       </c>
       <c r="F9" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>136.1637893657753</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>100.8417573507397</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>58.90455890409151</v>
+        <v>58.90455890409147</v>
       </c>
       <c r="J9" t="n">
-        <v>15.37922103265844</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -23147,28 +23147,28 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>72.43289562846323</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
         <v>149.7702446909496</v>
       </c>
       <c r="T9" t="n">
-        <v>195.4095977920013</v>
+        <v>7.884010625681015</v>
       </c>
       <c r="U9" t="n">
-        <v>60.69123123399629</v>
+        <v>225.8637684100909</v>
       </c>
       <c r="V9" t="n">
-        <v>45.2749999831056</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
-        <v>64.16939599459994</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X9" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
-        <v>18.15710861098469</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="10">
@@ -23196,16 +23196,16 @@
         <v>167.0019352027142</v>
       </c>
       <c r="H10" t="n">
-        <v>153.4336708318196</v>
+        <v>153.4336708318195</v>
       </c>
       <c r="I10" t="n">
-        <v>125.7072197708667</v>
+        <v>125.7072197708666</v>
       </c>
       <c r="J10" t="n">
-        <v>57.06999962825421</v>
+        <v>57.06999962825412</v>
       </c>
       <c r="K10" t="n">
-        <v>14.10430989402857</v>
+        <v>14.10430989402845</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -23220,10 +23220,10 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>18.10760906709392</v>
+        <v>18.10760906709379</v>
       </c>
       <c r="Q10" t="n">
-        <v>68.68604055159729</v>
+        <v>68.6860405515972</v>
       </c>
       <c r="R10" t="n">
         <v>132.8223696106904</v>
@@ -23235,13 +23235,13 @@
         <v>223.7196734901001</v>
       </c>
       <c r="U10" t="n">
-        <v>234.0491352390161</v>
+        <v>286.2650814934503</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>234.3070520821562</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -23269,7 +23269,7 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>317.3955842695683</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
         <v>410.9217256534534</v>
@@ -23278,7 +23278,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23308,10 +23308,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -23326,7 +23326,7 @@
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>348.9508612248989</v>
       </c>
     </row>
     <row r="12">
@@ -23357,7 +23357,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>1.147526518252562e-12</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -23415,16 +23415,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>74.42598799553461</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -23433,10 +23433,10 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I13" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,13 +23463,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T13" t="n">
-        <v>126.1901284846895</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>286.2118382056129</v>
@@ -23478,7 +23478,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -23494,7 +23494,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -23503,10 +23503,10 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>368.1343761759437</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>32.47773633174438</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -23548,10 +23548,10 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U14" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -23621,7 +23621,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -23655,10 +23655,10 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
@@ -23667,13 +23667,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>41.5985974547018</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H16" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I16" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,13 +23700,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>88.93215267004734</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S16" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>219.5489492761692</v>
+        <v>29.84181263399782</v>
       </c>
       <c r="U16" t="n">
         <v>286.2118382056129</v>
@@ -23715,10 +23715,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -23737,7 +23737,7 @@
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
@@ -23749,10 +23749,10 @@
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I17" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23782,25 +23782,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
         <v>203.9179701396201</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>273.4041678244996</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>330.0662089665219</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="18">
@@ -23889,7 +23889,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
@@ -23904,7 +23904,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>11.94814154347415</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H19" t="n">
         <v>144.7550149143208</v>
@@ -23943,22 +23943,22 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T19" t="n">
-        <v>219.5489492761692</v>
+        <v>104.5351158617509</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -23968,16 +23968,16 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634806</v>
+        <v>377.9422168060917</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>182.2374170652627</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
@@ -23986,10 +23986,10 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24022,7 +24022,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
@@ -24034,7 +24034,7 @@
         <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
         <v>0</v>
@@ -24126,22 +24126,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>146.2881604725182</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>166.0258082590282</v>
+        <v>29.42928430658424</v>
       </c>
       <c r="H22" t="n">
         <v>144.7550149143208</v>
@@ -24174,7 +24174,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>189.7690253314419</v>
@@ -24183,13 +24183,13 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
@@ -24214,7 +24214,7 @@
         <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
         <v>0</v>
@@ -24256,7 +24256,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
         <v>0</v>
@@ -24271,10 +24271,10 @@
         <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>236.3957064713649</v>
+        <v>349.8910368433331</v>
       </c>
       <c r="Y23" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -24363,7 +24363,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
@@ -24375,7 +24375,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>166.0258082590282</v>
@@ -24384,7 +24384,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I25" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,7 +24411,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S25" t="n">
         <v>189.7690253314419</v>
@@ -24420,7 +24420,7 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>284.0559359127099</v>
+        <v>23.93534836466705</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -24429,7 +24429,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24445,7 +24445,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>66.54216182877173</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
@@ -24457,10 +24457,10 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -24508,10 +24508,10 @@
         <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>369.731100678469</v>
+        <v>116.9817111225206</v>
       </c>
       <c r="Y26" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -24600,13 +24600,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -24615,7 +24615,7 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>166.0258082590282</v>
+        <v>118.1216260491473</v>
       </c>
       <c r="H28" t="n">
         <v>144.7550149143208</v>
@@ -24654,7 +24654,7 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T28" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>286.2118382056129</v>
@@ -24663,13 +24663,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>160.3027978282312</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -24679,22 +24679,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>381.9303700722618</v>
+        <v>229.2695069934087</v>
       </c>
       <c r="F29" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -24733,7 +24733,7 @@
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
         <v>0</v>
@@ -24748,7 +24748,7 @@
         <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>51.1657352417954</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="30">
@@ -24840,19 +24840,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>48.40916263079025</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H31" t="n">
         <v>144.7550149143208</v>
@@ -24891,10 +24891,10 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T31" t="n">
-        <v>112.4784535852599</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -24922,22 +24922,22 @@
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
-        <v>381.9303700722618</v>
+        <v>273.8271450137894</v>
       </c>
       <c r="F32" t="n">
-        <v>395.4998043255335</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24970,7 +24970,7 @@
         <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
         <v>0</v>
@@ -24982,10 +24982,10 @@
         <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -25080,7 +25080,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -25089,7 +25089,7 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>47.18814979119047</v>
       </c>
       <c r="H34" t="n">
         <v>144.7550149143208</v>
@@ -25128,7 +25128,7 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U34" t="n">
         <v>286.2118382056129</v>
@@ -25137,13 +25137,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>50.18328106465111</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -25162,19 +25162,19 @@
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>275.8186544966428</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H35" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25210,19 +25210,19 @@
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>30.68597564981619</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
         <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="36">
@@ -25314,7 +25314,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
@@ -25323,13 +25323,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H37" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>96.35242040983809</v>
@@ -25365,19 +25365,19 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>149.9412250731792</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>172.1623007152688</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -25390,10 +25390,10 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>130.3863645429413</v>
       </c>
       <c r="C38" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
         <v>0</v>
@@ -25402,16 +25402,16 @@
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>308.4112138219206</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25444,22 +25444,22 @@
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U38" t="n">
         <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
         <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -25551,19 +25551,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H40" t="n">
         <v>144.7550149143208</v>
@@ -25602,13 +25602,13 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T40" t="n">
-        <v>50.18328106465111</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>5.186210158858529</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
@@ -25617,7 +25617,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -25627,7 +25627,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
@@ -25636,7 +25636,7 @@
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>381.9303700722618</v>
+        <v>248.3340760291589</v>
       </c>
       <c r="F41" t="n">
         <v>0</v>
@@ -25645,10 +25645,10 @@
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I41" t="n">
-        <v>23.77252859328158</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25681,7 +25681,7 @@
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U41" t="n">
         <v>250.995171958902</v>
@@ -25788,16 +25788,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>68.00100824324909</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -25842,10 +25842,10 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>145.0671476329187</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -25864,7 +25864,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>117.5232940416895</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
@@ -25873,10 +25873,10 @@
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>155.0701515403417</v>
       </c>
       <c r="F44" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
         <v>0</v>
@@ -25885,7 +25885,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25924,7 +25924,7 @@
         <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
         <v>0</v>
@@ -26025,10 +26025,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>48.40916263079018</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -26037,7 +26037,7 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H46" t="n">
         <v>144.7550149143208</v>
@@ -26079,13 +26079,13 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U46" t="n">
-        <v>150.3991599658279</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>433263.0758337674</v>
+        <v>402256.5418769753</v>
       </c>
     </row>
     <row r="3">
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>433263.0758337675</v>
+        <v>417888.8482179075</v>
       </c>
     </row>
     <row r="4">
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>433263.0758337675</v>
+        <v>433263.0758337679</v>
       </c>
     </row>
     <row r="5">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>855506.541158749</v>
+        <v>855506.5411587489</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>855506.541158749</v>
+        <v>855506.5411587491</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>855506.5411587488</v>
+        <v>855506.541158749</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>855506.5411587491</v>
+        <v>855506.5411587489</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>855506.5411587491</v>
+        <v>855506.541158749</v>
       </c>
     </row>
     <row r="11">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>855506.5411587491</v>
+        <v>855506.541158749</v>
       </c>
     </row>
     <row r="13">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>855506.5411587491</v>
+        <v>855506.5411587487</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>855506.541158749</v>
+        <v>855506.5411587489</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>855506.541158749</v>
+        <v>855506.5411587489</v>
       </c>
     </row>
   </sheetData>
@@ -26313,46 +26313,46 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>149975.680096304</v>
+        <v>139242.6491112606</v>
       </c>
       <c r="C2" t="n">
-        <v>149975.680096304</v>
+        <v>144653.8320754295</v>
       </c>
       <c r="D2" t="n">
-        <v>149975.680096304</v>
+        <v>149975.6800963042</v>
       </c>
       <c r="E2" t="n">
         <v>296136.8796318746</v>
       </c>
       <c r="F2" t="n">
-        <v>296136.8796318747</v>
+        <v>296136.8796318746</v>
       </c>
       <c r="G2" t="n">
-        <v>296136.8796318746</v>
+        <v>296136.8796318745</v>
       </c>
       <c r="H2" t="n">
         <v>296136.8796318746</v>
       </c>
       <c r="I2" t="n">
+        <v>296136.8796318744</v>
+      </c>
+      <c r="J2" t="n">
+        <v>296136.8796318746</v>
+      </c>
+      <c r="K2" t="n">
+        <v>296136.8796318746</v>
+      </c>
+      <c r="L2" t="n">
         <v>296136.8796318745</v>
-      </c>
-      <c r="J2" t="n">
-        <v>296136.8796318745</v>
-      </c>
-      <c r="K2" t="n">
-        <v>296136.8796318745</v>
-      </c>
-      <c r="L2" t="n">
-        <v>296136.8796318744</v>
       </c>
       <c r="M2" t="n">
         <v>296136.8796318746</v>
       </c>
       <c r="N2" t="n">
-        <v>296136.8796318745</v>
+        <v>296136.8796318744</v>
       </c>
       <c r="O2" t="n">
-        <v>296136.8796318745</v>
+        <v>296136.8796318744</v>
       </c>
       <c r="P2" t="n">
         <v>296136.8796318744</v>
@@ -26365,22 +26365,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>591356.9025208451</v>
+        <v>542655.4349751304</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>23320.45473340651</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>21735.84085679112</v>
       </c>
       <c r="E3" t="n">
-        <v>627134.6436336677</v>
+        <v>627134.6436336674</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.767800767993322e-10</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26389,16 +26389,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>49064.94472854459</v>
+        <v>38421.40650613431</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>5130.967102136536</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>5249.907226004599</v>
       </c>
       <c r="M3" t="n">
-        <v>160456.4418678774</v>
+        <v>160456.4418678773</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26417,19 +26417,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>137.8001180723338</v>
+        <v>107.1921479602628</v>
       </c>
       <c r="C4" t="n">
-        <v>137.8001180723338</v>
+        <v>122.1898065383437</v>
       </c>
       <c r="D4" t="n">
-        <v>137.8001180723338</v>
+        <v>137.8001180723343</v>
       </c>
       <c r="E4" t="n">
-        <v>584.646989006123</v>
+        <v>584.6469890061231</v>
       </c>
       <c r="F4" t="n">
-        <v>584.646989006123</v>
+        <v>584.6469890061231</v>
       </c>
       <c r="G4" t="n">
         <v>584.6469890061231</v>
@@ -26438,7 +26438,7 @@
         <v>584.6469890061231</v>
       </c>
       <c r="I4" t="n">
-        <v>584.6469890061231</v>
+        <v>584.646989006123</v>
       </c>
       <c r="J4" t="n">
         <v>584.6469890061231</v>
@@ -26453,7 +26453,7 @@
         <v>584.6469890061231</v>
       </c>
       <c r="N4" t="n">
-        <v>584.6469890061232</v>
+        <v>584.6469890061231</v>
       </c>
       <c r="O4" t="n">
         <v>584.6469890061231</v>
@@ -26469,13 +26469,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>56985.80041161355</v>
+        <v>53719.1197790209</v>
       </c>
       <c r="C5" t="n">
-        <v>56985.80041161356</v>
+        <v>55335.34872138573</v>
       </c>
       <c r="D5" t="n">
-        <v>56985.80041161355</v>
+        <v>56985.80041161359</v>
       </c>
       <c r="E5" t="n">
         <v>74306.3405613933</v>
@@ -26505,13 +26505,13 @@
         <v>74306.34056139328</v>
       </c>
       <c r="N5" t="n">
-        <v>74306.3405613933</v>
+        <v>74306.34056139328</v>
       </c>
       <c r="O5" t="n">
-        <v>74306.3405613933</v>
+        <v>74306.34056139328</v>
       </c>
       <c r="P5" t="n">
-        <v>74306.3405613933</v>
+        <v>74306.34056139328</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-510698.8849732616</v>
+        <v>-458518.1319426713</v>
       </c>
       <c r="C6" t="n">
-        <v>80658.01754758345</v>
+        <v>64626.86678985725</v>
       </c>
       <c r="D6" t="n">
-        <v>80658.01754758347</v>
+        <v>69896.83250792364</v>
       </c>
       <c r="E6" t="n">
-        <v>-409962.7469303622</v>
+        <v>-406296.1510900091</v>
       </c>
       <c r="F6" t="n">
-        <v>217171.8967033056</v>
+        <v>220838.4925436582</v>
       </c>
       <c r="G6" t="n">
-        <v>217171.8967033053</v>
+        <v>220838.4925436581</v>
       </c>
       <c r="H6" t="n">
-        <v>217171.8967033056</v>
+        <v>220838.4925436582</v>
       </c>
       <c r="I6" t="n">
-        <v>217171.8967033055</v>
+        <v>220838.4925436582</v>
       </c>
       <c r="J6" t="n">
-        <v>168106.9519747609</v>
+        <v>182417.0860375239</v>
       </c>
       <c r="K6" t="n">
-        <v>217171.8967033055</v>
+        <v>215707.5254415217</v>
       </c>
       <c r="L6" t="n">
-        <v>217171.8967033054</v>
+        <v>215588.5853176535</v>
       </c>
       <c r="M6" t="n">
-        <v>56715.45483542819</v>
+        <v>60382.05067578099</v>
       </c>
       <c r="N6" t="n">
-        <v>217171.8967033055</v>
+        <v>220838.492543658</v>
       </c>
       <c r="O6" t="n">
-        <v>217171.8967033055</v>
+        <v>220838.492543658</v>
       </c>
       <c r="P6" t="n">
-        <v>217171.8967033053</v>
+        <v>220838.492543658</v>
       </c>
     </row>
   </sheetData>
@@ -26737,13 +26737,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>548.4699409129043</v>
+        <v>512.0768631572208</v>
       </c>
       <c r="C3" t="n">
-        <v>548.4699409129043</v>
+        <v>530.6136320241912</v>
       </c>
       <c r="D3" t="n">
-        <v>548.4699409129043</v>
+        <v>548.4699409129049</v>
       </c>
       <c r="E3" t="n">
         <v>1089.776700593298</v>
@@ -26789,19 +26789,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>187.5255871663197</v>
+        <v>146.8461210887086</v>
       </c>
       <c r="C4" t="n">
-        <v>187.5255871663197</v>
+        <v>166.7824266983284</v>
       </c>
       <c r="D4" t="n">
-        <v>187.5255871663197</v>
+        <v>187.5255871663202</v>
       </c>
       <c r="E4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="F4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="G4" t="n">
         <v>831.4014554022926</v>
@@ -26825,13 +26825,13 @@
         <v>831.4014554022925</v>
       </c>
       <c r="N4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="O4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="P4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022924</v>
       </c>
     </row>
   </sheetData>
@@ -26959,31 +26959,31 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>548.4699409129043</v>
+        <v>512.0768631572208</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>18.53676886697042</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>17.85630888871367</v>
       </c>
       <c r="E3" t="n">
-        <v>541.3067596803937</v>
+        <v>541.3067596803934</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
         <v>2.273736754432321e-13</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>0</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -27011,16 +27011,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>187.5255871663197</v>
+        <v>146.8461210887086</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>19.93630560961978</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>20.7431604679918</v>
       </c>
       <c r="E4" t="n">
-        <v>643.875868235973</v>
+        <v>643.8758682359727</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>187.5255871663198</v>
+        <v>146.8461210887089</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>19.93630560961944</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>20.74316046799214</v>
       </c>
       <c r="M4" t="n">
-        <v>643.8758682359727</v>
+        <v>643.8758682359723</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27257,16 +27257,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>187.5255871663197</v>
+        <v>146.8461210887086</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>19.93630560961978</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>20.7431604679918</v>
       </c>
       <c r="M4" t="n">
-        <v>643.875868235973</v>
+        <v>643.8758682359727</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -31041,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>2.204904285077001</v>
+        <v>2.058600454903399</v>
       </c>
       <c r="H2" t="n">
-        <v>22.58097600954484</v>
+        <v>21.08264190877944</v>
       </c>
       <c r="I2" t="n">
-        <v>85.00457245043116</v>
+        <v>79.36419403766335</v>
       </c>
       <c r="J2" t="n">
-        <v>187.1384950655543</v>
+        <v>174.7211403593575</v>
       </c>
       <c r="K2" t="n">
-        <v>280.4720934528638</v>
+        <v>261.8616976154184</v>
       </c>
       <c r="L2" t="n">
-        <v>347.9504329672891</v>
+        <v>324.8625912871684</v>
       </c>
       <c r="M2" t="n">
-        <v>387.1618995470272</v>
+        <v>361.4722271270567</v>
       </c>
       <c r="N2" t="n">
-        <v>393.4265838470022</v>
+        <v>367.321225669551</v>
       </c>
       <c r="O2" t="n">
-        <v>371.5015668622678</v>
+        <v>346.8510173961053</v>
       </c>
       <c r="P2" t="n">
-        <v>317.0679923244293</v>
+        <v>296.0293186656776</v>
       </c>
       <c r="Q2" t="n">
-        <v>238.1048576151091</v>
+        <v>222.3056898744496</v>
       </c>
       <c r="R2" t="n">
-        <v>138.5038187974683</v>
+        <v>129.3135608253257</v>
       </c>
       <c r="S2" t="n">
-        <v>50.24425639619221</v>
+        <v>46.91035786611125</v>
       </c>
       <c r="T2" t="n">
-        <v>9.651968507924575</v>
+        <v>9.011523491339632</v>
       </c>
       <c r="U2" t="n">
-        <v>0.17639234280616</v>
+        <v>0.1646880363922719</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31120,49 +31120,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.179727797435304</v>
+        <v>1.101448347168362</v>
       </c>
       <c r="H3" t="n">
-        <v>11.39368688575675</v>
+        <v>10.63767219502076</v>
       </c>
       <c r="I3" t="n">
-        <v>40.61782109590849</v>
+        <v>37.92267335645457</v>
       </c>
       <c r="J3" t="n">
-        <v>111.4584056340083</v>
+        <v>104.0627142383934</v>
       </c>
       <c r="K3" t="n">
-        <v>190.5001680621733</v>
+        <v>177.8597534986736</v>
       </c>
       <c r="L3" t="n">
-        <v>256.1509851405032</v>
+        <v>239.1543878358323</v>
       </c>
       <c r="M3" t="n">
-        <v>298.9161177975328</v>
+        <v>279.0818904206853</v>
       </c>
       <c r="N3" t="n">
-        <v>306.8275379829653</v>
+        <v>278.1878331720419</v>
       </c>
       <c r="O3" t="n">
-        <v>280.6872536292672</v>
+        <v>262.0625810914128</v>
       </c>
       <c r="P3" t="n">
-        <v>225.2762668628871</v>
+        <v>171.5470783449032</v>
       </c>
       <c r="Q3" t="n">
-        <v>150.5912184936714</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R3" t="n">
-        <v>73.24660833550072</v>
+        <v>68.38641580050586</v>
       </c>
       <c r="S3" t="n">
-        <v>21.91292641288819</v>
+        <v>20.45891995727197</v>
       </c>
       <c r="T3" t="n">
-        <v>4.755130902820367</v>
+        <v>4.439609785297035</v>
       </c>
       <c r="U3" t="n">
-        <v>0.07761367088390159</v>
+        <v>0.07246370705055015</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,49 +31199,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.9890441557445815</v>
+        <v>0.9234172942179391</v>
       </c>
       <c r="H4" t="n">
-        <v>8.793501675620012</v>
+        <v>8.210019215864955</v>
       </c>
       <c r="I4" t="n">
-        <v>29.7432551563916</v>
+        <v>27.76967644793585</v>
       </c>
       <c r="J4" t="n">
-        <v>69.9254218111419</v>
+        <v>65.28560270120829</v>
       </c>
       <c r="K4" t="n">
-        <v>114.9089482765068</v>
+        <v>107.2843001827751</v>
       </c>
       <c r="L4" t="n">
-        <v>147.043892027699</v>
+        <v>137.2869675421834</v>
       </c>
       <c r="M4" t="n">
-        <v>155.0371670682165</v>
+        <v>144.7498582199993</v>
       </c>
       <c r="N4" t="n">
-        <v>151.3507297604414</v>
+        <v>141.3080301233689</v>
       </c>
       <c r="O4" t="n">
-        <v>139.7968957592433</v>
+        <v>130.5208371863684</v>
       </c>
       <c r="P4" t="n">
-        <v>119.6203949820537</v>
+        <v>111.6831243843223</v>
       </c>
       <c r="Q4" t="n">
-        <v>82.81896107784856</v>
+        <v>77.32360633674034</v>
       </c>
       <c r="R4" t="n">
-        <v>44.47102176647908</v>
+        <v>41.52019942910842</v>
       </c>
       <c r="S4" t="n">
-        <v>17.23634224147602</v>
+        <v>16.09264502741626</v>
       </c>
       <c r="T4" t="n">
-        <v>4.225915938181393</v>
+        <v>3.945510257113011</v>
       </c>
       <c r="U4" t="n">
-        <v>0.0539478630406136</v>
+        <v>0.05036821604825128</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31278,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>2.204904285077001</v>
+        <v>2.133120128740466</v>
       </c>
       <c r="H5" t="n">
-        <v>22.58097600954484</v>
+        <v>21.8458165184633</v>
       </c>
       <c r="I5" t="n">
-        <v>85.00457245043116</v>
+        <v>82.23711376326689</v>
       </c>
       <c r="J5" t="n">
-        <v>187.1384950655543</v>
+        <v>181.0459045266863</v>
       </c>
       <c r="K5" t="n">
-        <v>280.4720934528638</v>
+        <v>271.3408795762703</v>
       </c>
       <c r="L5" t="n">
-        <v>347.9504329672891</v>
+        <v>336.6223547162113</v>
       </c>
       <c r="M5" t="n">
-        <v>387.1618995470272</v>
+        <v>374.5572298056996</v>
       </c>
       <c r="N5" t="n">
-        <v>393.4265838470022</v>
+        <v>380.6179573714834</v>
       </c>
       <c r="O5" t="n">
-        <v>371.5015668622678</v>
+        <v>359.4067440913204</v>
       </c>
       <c r="P5" t="n">
-        <v>317.0679923244293</v>
+        <v>306.7453409130401</v>
       </c>
       <c r="Q5" t="n">
-        <v>238.1048576151091</v>
+        <v>230.3529763025221</v>
       </c>
       <c r="R5" t="n">
-        <v>138.5038187974683</v>
+        <v>133.9946072869934</v>
       </c>
       <c r="S5" t="n">
-        <v>50.24425639619221</v>
+        <v>48.60847493367341</v>
       </c>
       <c r="T5" t="n">
-        <v>9.651968507924575</v>
+        <v>9.337733363561393</v>
       </c>
       <c r="U5" t="n">
-        <v>0.17639234280616</v>
+        <v>0.1706496102992372</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31357,49 +31357,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>1.179727797435304</v>
+        <v>1.141319887750147</v>
       </c>
       <c r="H6" t="n">
-        <v>11.39368688575675</v>
+        <v>11.02274733695537</v>
       </c>
       <c r="I6" t="n">
-        <v>40.61782109590849</v>
+        <v>39.29544350367832</v>
       </c>
       <c r="J6" t="n">
-        <v>111.4584056340083</v>
+        <v>107.8297004474821</v>
       </c>
       <c r="K6" t="n">
-        <v>190.5001680621736</v>
+        <v>184.298132926742</v>
       </c>
       <c r="L6" t="n">
-        <v>256.1509851405032</v>
+        <v>247.8115835222414</v>
       </c>
       <c r="M6" t="n">
-        <v>298.9161177975328</v>
+        <v>289.1844294531842</v>
       </c>
       <c r="N6" t="n">
-        <v>306.8275379829653</v>
+        <v>270.3413096326974</v>
       </c>
       <c r="O6" t="n">
-        <v>280.6872536292672</v>
+        <v>271.5490348718519</v>
       </c>
       <c r="P6" t="n">
-        <v>225.2762668628871</v>
+        <v>217.9420406704645</v>
       </c>
       <c r="Q6" t="n">
-        <v>150.5912184936714</v>
+        <v>145.68848251351</v>
       </c>
       <c r="R6" t="n">
-        <v>73.24660833550072</v>
+        <v>70.86194882013636</v>
       </c>
       <c r="S6" t="n">
-        <v>21.91292641288819</v>
+        <v>21.19951633606084</v>
       </c>
       <c r="T6" t="n">
-        <v>4.755130902820367</v>
+        <v>4.600320073870109</v>
       </c>
       <c r="U6" t="n">
-        <v>0.07761367088390159</v>
+        <v>0.07508683472040445</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,49 +31436,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.9890441557445815</v>
+        <v>0.956844254469853</v>
       </c>
       <c r="H7" t="n">
-        <v>8.793501675620012</v>
+        <v>8.507215280650154</v>
       </c>
       <c r="I7" t="n">
-        <v>29.7432551563916</v>
+        <v>28.77491630714795</v>
       </c>
       <c r="J7" t="n">
-        <v>69.9254218111419</v>
+        <v>67.64888879101861</v>
       </c>
       <c r="K7" t="n">
-        <v>114.9089482765068</v>
+        <v>111.1679052011338</v>
       </c>
       <c r="L7" t="n">
-        <v>147.043892027699</v>
+        <v>142.2566448872725</v>
       </c>
       <c r="M7" t="n">
-        <v>155.0371670682165</v>
+        <v>149.9896861802152</v>
       </c>
       <c r="N7" t="n">
-        <v>151.3507297604414</v>
+        <v>146.4232666862822</v>
       </c>
       <c r="O7" t="n">
-        <v>139.7968957592433</v>
+        <v>135.245586077248</v>
       </c>
       <c r="P7" t="n">
-        <v>119.6203949820537</v>
+        <v>115.7259632860629</v>
       </c>
       <c r="Q7" t="n">
-        <v>82.81896107784856</v>
+        <v>80.12265843565288</v>
       </c>
       <c r="R7" t="n">
-        <v>44.47102176647908</v>
+        <v>43.0231971146172</v>
       </c>
       <c r="S7" t="n">
-        <v>17.23634224147602</v>
+        <v>16.67518578017007</v>
       </c>
       <c r="T7" t="n">
-        <v>4.225915938181393</v>
+        <v>4.088334541825734</v>
       </c>
       <c r="U7" t="n">
-        <v>0.0539478630406136</v>
+        <v>0.05219150478926476</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31515,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>2.204904285077001</v>
+        <v>2.204904285077003</v>
       </c>
       <c r="H8" t="n">
-        <v>22.58097600954484</v>
+        <v>22.58097600954486</v>
       </c>
       <c r="I8" t="n">
-        <v>85.00457245043116</v>
+        <v>85.00457245043124</v>
       </c>
       <c r="J8" t="n">
-        <v>187.1384950655543</v>
+        <v>187.1384950655545</v>
       </c>
       <c r="K8" t="n">
-        <v>280.4720934528638</v>
+        <v>280.472093452864</v>
       </c>
       <c r="L8" t="n">
-        <v>347.9504329672891</v>
+        <v>347.9504329672894</v>
       </c>
       <c r="M8" t="n">
-        <v>387.1618995470272</v>
+        <v>387.1618995470276</v>
       </c>
       <c r="N8" t="n">
-        <v>393.4265838470022</v>
+        <v>393.4265838470026</v>
       </c>
       <c r="O8" t="n">
-        <v>371.5015668622678</v>
+        <v>371.5015668622682</v>
       </c>
       <c r="P8" t="n">
-        <v>317.0679923244293</v>
+        <v>317.0679923244296</v>
       </c>
       <c r="Q8" t="n">
-        <v>238.1048576151091</v>
+        <v>238.1048576151094</v>
       </c>
       <c r="R8" t="n">
-        <v>138.5038187974683</v>
+        <v>138.5038187974684</v>
       </c>
       <c r="S8" t="n">
-        <v>50.24425639619221</v>
+        <v>50.24425639619226</v>
       </c>
       <c r="T8" t="n">
-        <v>9.651968507924575</v>
+        <v>9.651968507924586</v>
       </c>
       <c r="U8" t="n">
-        <v>0.17639234280616</v>
+        <v>0.1763923428061602</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>1.179727797435304</v>
+        <v>1.179727797435305</v>
       </c>
       <c r="H9" t="n">
-        <v>11.39368688575675</v>
+        <v>11.39368688575676</v>
       </c>
       <c r="I9" t="n">
-        <v>40.61782109590849</v>
+        <v>40.61782109590853</v>
       </c>
       <c r="J9" t="n">
-        <v>111.4584056340083</v>
+        <v>111.4584056340084</v>
       </c>
       <c r="K9" t="n">
-        <v>190.5001680621736</v>
+        <v>190.5001680621738</v>
       </c>
       <c r="L9" t="n">
-        <v>256.1509851405032</v>
+        <v>256.1509851405034</v>
       </c>
       <c r="M9" t="n">
-        <v>298.9161177975328</v>
+        <v>298.9161177975332</v>
       </c>
       <c r="N9" t="n">
-        <v>306.8275379829653</v>
+        <v>306.8275379829656</v>
       </c>
       <c r="O9" t="n">
-        <v>280.6872536292672</v>
+        <v>280.6872536292675</v>
       </c>
       <c r="P9" t="n">
-        <v>225.2762668628871</v>
+        <v>225.2762668628873</v>
       </c>
       <c r="Q9" t="n">
-        <v>150.5912184936714</v>
+        <v>150.5912184936716</v>
       </c>
       <c r="R9" t="n">
-        <v>73.24660833550072</v>
+        <v>73.24660833550081</v>
       </c>
       <c r="S9" t="n">
-        <v>21.91292641288819</v>
+        <v>21.91292641288821</v>
       </c>
       <c r="T9" t="n">
-        <v>4.755130902820367</v>
+        <v>4.755130902820373</v>
       </c>
       <c r="U9" t="n">
-        <v>0.07761367088390159</v>
+        <v>0.07761367088390167</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.9890441557445815</v>
+        <v>0.9890441557445825</v>
       </c>
       <c r="H10" t="n">
-        <v>8.793501675620012</v>
+        <v>8.793501675620021</v>
       </c>
       <c r="I10" t="n">
-        <v>29.7432551563916</v>
+        <v>29.74325515639164</v>
       </c>
       <c r="J10" t="n">
-        <v>69.9254218111419</v>
+        <v>69.92542181114199</v>
       </c>
       <c r="K10" t="n">
-        <v>114.9089482765068</v>
+        <v>114.9089482765069</v>
       </c>
       <c r="L10" t="n">
-        <v>147.043892027699</v>
+        <v>147.0438920276991</v>
       </c>
       <c r="M10" t="n">
-        <v>155.0371670682165</v>
+        <v>155.0371670682167</v>
       </c>
       <c r="N10" t="n">
-        <v>151.3507297604414</v>
+        <v>151.3507297604415</v>
       </c>
       <c r="O10" t="n">
-        <v>139.7968957592433</v>
+        <v>139.7968957592434</v>
       </c>
       <c r="P10" t="n">
-        <v>119.6203949820537</v>
+        <v>119.6203949820538</v>
       </c>
       <c r="Q10" t="n">
-        <v>82.81896107784856</v>
+        <v>82.81896107784864</v>
       </c>
       <c r="R10" t="n">
-        <v>44.47102176647908</v>
+        <v>44.47102176647913</v>
       </c>
       <c r="S10" t="n">
-        <v>17.23634224147602</v>
+        <v>17.23634224147604</v>
       </c>
       <c r="T10" t="n">
-        <v>4.225915938181393</v>
+        <v>4.225915938181397</v>
       </c>
       <c r="U10" t="n">
-        <v>0.0539478630406136</v>
+        <v>0.05394786304061366</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31752,43 +31752,43 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H11" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I11" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J11" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K11" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L11" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M11" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N11" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O11" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P11" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q11" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R11" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S11" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T11" t="n">
         <v>19.1778794245112</v>
@@ -31837,40 +31837,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I12" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J12" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K12" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L12" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M12" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N12" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O12" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P12" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q12" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R12" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S12" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T12" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U12" t="n">
         <v>0.1542136840462215</v>
@@ -31910,13 +31910,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H13" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I13" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J13" t="n">
         <v>138.937596729739</v>
@@ -31925,16 +31925,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L13" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M13" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N13" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O13" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P13" t="n">
         <v>237.6785118802169</v>
@@ -31943,16 +31943,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R13" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S13" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T13" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,43 +31989,43 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H14" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I14" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J14" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K14" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L14" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M14" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N14" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O14" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P14" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q14" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R14" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S14" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T14" t="n">
         <v>19.1778794245112</v>
@@ -32074,40 +32074,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I15" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J15" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K15" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L15" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M15" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N15" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O15" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P15" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q15" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R15" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S15" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T15" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U15" t="n">
         <v>0.1542136840462215</v>
@@ -32147,13 +32147,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H16" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I16" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J16" t="n">
         <v>138.937596729739</v>
@@ -32162,16 +32162,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L16" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M16" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N16" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O16" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P16" t="n">
         <v>237.6785118802169</v>
@@ -32180,16 +32180,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R16" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S16" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T16" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32484,7 +32484,7 @@
         <v>769.2673490574995</v>
       </c>
       <c r="N20" t="n">
-        <v>781.714899009502</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O20" t="n">
         <v>738.1512123099059</v>
@@ -32496,7 +32496,7 @@
         <v>473.099994678169</v>
       </c>
       <c r="R20" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563564</v>
       </c>
       <c r="S20" t="n">
         <v>99.83230779806951</v>
@@ -32700,43 +32700,43 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H23" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I23" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J23" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K23" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L23" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M23" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N23" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O23" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P23" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q23" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R23" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S23" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T23" t="n">
         <v>19.1778794245112</v>
@@ -32785,40 +32785,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I24" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J24" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K24" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L24" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M24" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N24" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O24" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P24" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q24" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R24" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S24" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T24" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U24" t="n">
         <v>0.1542136840462215</v>
@@ -32858,13 +32858,13 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H25" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I25" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J25" t="n">
         <v>138.937596729739</v>
@@ -32873,16 +32873,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L25" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M25" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N25" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O25" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P25" t="n">
         <v>237.6785118802169</v>
@@ -32891,16 +32891,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R25" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S25" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T25" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -33046,7 +33046,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q27" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R27" t="n">
         <v>145.5365940905541</v>
@@ -33283,7 +33283,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q30" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R30" t="n">
         <v>145.5365940905541</v>
@@ -33757,7 +33757,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q36" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R36" t="n">
         <v>145.5365940905541</v>
@@ -33918,7 +33918,7 @@
         <v>473.099994678169</v>
       </c>
       <c r="R38" t="n">
-        <v>275.1987363563574</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S38" t="n">
         <v>99.83230779806951</v>
@@ -34698,28 +34698,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>6.092590538867967</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>60.38224240788321</v>
+        <v>41.77184657043784</v>
       </c>
       <c r="L2" t="n">
-        <v>112.1840179973019</v>
+        <v>89.09617631718112</v>
       </c>
       <c r="M2" t="n">
-        <v>156.8156663197545</v>
+        <v>131.1259938997839</v>
       </c>
       <c r="N2" t="n">
-        <v>164.0135202504113</v>
+        <v>137.9081620729601</v>
       </c>
       <c r="O2" t="n">
-        <v>141.4033554405811</v>
+        <v>116.7528059744186</v>
       </c>
       <c r="P2" t="n">
-        <v>85.83499656915973</v>
+        <v>64.79632291040804</v>
       </c>
       <c r="Q2" t="n">
-        <v>15.79916774065964</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34780,25 +34780,25 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>52.65872908781433</v>
+        <v>40.0183145243146</v>
       </c>
       <c r="L3" t="n">
-        <v>117.596605360629</v>
+        <v>100.6000080559581</v>
       </c>
       <c r="M3" t="n">
-        <v>156.7820838755145</v>
+        <v>136.947856498667</v>
       </c>
       <c r="N3" t="n">
-        <v>175.485825899632</v>
+        <v>146.8461210887086</v>
       </c>
       <c r="O3" t="n">
-        <v>138.0910091848227</v>
+        <v>119.4663366469684</v>
       </c>
       <c r="P3" t="n">
-        <v>91.30185944855685</v>
+        <v>37.57267093057298</v>
       </c>
       <c r="Q3" t="n">
-        <v>10.6094444076499</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34862,16 +34862,16 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>12.15921574646072</v>
+        <v>2.402291260945162</v>
       </c>
       <c r="M4" t="n">
-        <v>16.11138312061146</v>
+        <v>5.824074272394228</v>
       </c>
       <c r="N4" t="n">
-        <v>23.66518529520818</v>
+        <v>13.6224856581357</v>
       </c>
       <c r="O4" t="n">
-        <v>1.340357307400467</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -34935,28 +34935,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>6.092590538867967</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>60.38224240788321</v>
+        <v>51.25102853128971</v>
       </c>
       <c r="L5" t="n">
-        <v>112.1840179973019</v>
+        <v>100.8559397462241</v>
       </c>
       <c r="M5" t="n">
-        <v>156.8156663197545</v>
+        <v>144.2109965784269</v>
       </c>
       <c r="N5" t="n">
-        <v>164.0135202504113</v>
+        <v>151.2048937748925</v>
       </c>
       <c r="O5" t="n">
-        <v>141.4033554405811</v>
+        <v>129.3085326696337</v>
       </c>
       <c r="P5" t="n">
-        <v>85.83499656915973</v>
+        <v>75.5123451577706</v>
       </c>
       <c r="Q5" t="n">
-        <v>15.79916774065964</v>
+        <v>8.047286428072653</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35017,25 +35017,25 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>52.65872908781461</v>
+        <v>46.45669395238301</v>
       </c>
       <c r="L6" t="n">
-        <v>117.596605360629</v>
+        <v>109.2572037423672</v>
       </c>
       <c r="M6" t="n">
-        <v>156.7820838755145</v>
+        <v>147.0503955311659</v>
       </c>
       <c r="N6" t="n">
-        <v>175.485825899632</v>
+        <v>138.9995975493641</v>
       </c>
       <c r="O6" t="n">
-        <v>138.0910091848227</v>
+        <v>128.9527904274075</v>
       </c>
       <c r="P6" t="n">
-        <v>91.30185944855685</v>
+        <v>83.96763325613429</v>
       </c>
       <c r="Q6" t="n">
-        <v>10.6094444076499</v>
+        <v>5.706708427488508</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35099,16 +35099,16 @@
         <v>0</v>
       </c>
       <c r="L7" t="n">
-        <v>12.15921574646072</v>
+        <v>7.371968606034244</v>
       </c>
       <c r="M7" t="n">
-        <v>16.11138312061146</v>
+        <v>11.06390223261016</v>
       </c>
       <c r="N7" t="n">
-        <v>23.66518529520818</v>
+        <v>18.73772222104904</v>
       </c>
       <c r="O7" t="n">
-        <v>1.340357307400467</v>
+        <v>0</v>
       </c>
       <c r="P7" t="n">
         <v>0</v>
@@ -35172,28 +35172,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>6.092590538867967</v>
+        <v>6.092590538868166</v>
       </c>
       <c r="K8" t="n">
-        <v>60.38224240788321</v>
+        <v>60.3822424078835</v>
       </c>
       <c r="L8" t="n">
-        <v>112.1840179973019</v>
+        <v>112.1840179973022</v>
       </c>
       <c r="M8" t="n">
-        <v>156.8156663197545</v>
+        <v>156.8156663197549</v>
       </c>
       <c r="N8" t="n">
-        <v>164.0135202504113</v>
+        <v>164.0135202504117</v>
       </c>
       <c r="O8" t="n">
-        <v>141.4033554405811</v>
+        <v>141.4033554405815</v>
       </c>
       <c r="P8" t="n">
-        <v>85.83499656915973</v>
+        <v>85.83499656916007</v>
       </c>
       <c r="Q8" t="n">
-        <v>15.79916774065964</v>
+        <v>15.7991677406599</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35254,25 +35254,25 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>52.65872908781461</v>
+        <v>52.65872908781481</v>
       </c>
       <c r="L9" t="n">
-        <v>117.596605360629</v>
+        <v>117.5966053606292</v>
       </c>
       <c r="M9" t="n">
-        <v>156.7820838755145</v>
+        <v>156.7820838755148</v>
       </c>
       <c r="N9" t="n">
-        <v>175.485825899632</v>
+        <v>175.4858258996323</v>
       </c>
       <c r="O9" t="n">
-        <v>138.0910091848227</v>
+        <v>138.0910091848231</v>
       </c>
       <c r="P9" t="n">
-        <v>91.30185944855685</v>
+        <v>91.30185944855708</v>
       </c>
       <c r="Q9" t="n">
-        <v>10.6094444076499</v>
+        <v>10.60944440765005</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35336,16 +35336,16 @@
         <v>0</v>
       </c>
       <c r="L10" t="n">
-        <v>12.15921574646072</v>
+        <v>12.15921574646086</v>
       </c>
       <c r="M10" t="n">
-        <v>16.11138312061146</v>
+        <v>16.11138312061163</v>
       </c>
       <c r="N10" t="n">
-        <v>23.66518529520818</v>
+        <v>23.66518529520835</v>
       </c>
       <c r="O10" t="n">
-        <v>1.340357307400467</v>
+        <v>1.340357307400609</v>
       </c>
       <c r="P10" t="n">
         <v>0</v>
@@ -35409,31 +35409,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K11" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L11" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M11" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N11" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O11" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P11" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q11" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R11" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K12" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L12" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M12" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N12" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O12" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P12" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q12" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>11.94217529034286</v>
+        <v>11.94217529034289</v>
       </c>
       <c r="K13" t="n">
-        <v>99.30389319966699</v>
+        <v>99.30389319966704</v>
       </c>
       <c r="L13" t="n">
-        <v>157.2826706286436</v>
+        <v>157.2826706286437</v>
       </c>
       <c r="M13" t="n">
-        <v>169.1237184840381</v>
+        <v>169.1237184840382</v>
       </c>
       <c r="N13" t="n">
-        <v>173.0392293230782</v>
+        <v>173.0392293230783</v>
       </c>
       <c r="O13" t="n">
         <v>139.3114638567573</v>
       </c>
       <c r="P13" t="n">
-        <v>99.95050783106927</v>
+        <v>99.95050783106933</v>
       </c>
       <c r="Q13" t="n">
-        <v>13.05128016014217</v>
+        <v>13.0512801601422</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35646,31 +35646,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K14" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L14" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M14" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N14" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O14" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P14" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q14" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R14" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K15" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L15" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M15" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N15" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O15" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P15" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q15" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35804,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>11.94217529034286</v>
+        <v>11.94217529034289</v>
       </c>
       <c r="K16" t="n">
-        <v>99.30389319966699</v>
+        <v>99.30389319966704</v>
       </c>
       <c r="L16" t="n">
-        <v>157.2826706286436</v>
+        <v>157.2826706286437</v>
       </c>
       <c r="M16" t="n">
-        <v>169.1237184840381</v>
+        <v>169.1237184840382</v>
       </c>
       <c r="N16" t="n">
-        <v>173.0392293230782</v>
+        <v>173.0392293230783</v>
       </c>
       <c r="O16" t="n">
         <v>139.3114638567573</v>
       </c>
       <c r="P16" t="n">
-        <v>99.95050783106927</v>
+        <v>99.95050783106933</v>
       </c>
       <c r="Q16" t="n">
-        <v>13.05128016014217</v>
+        <v>13.0512801601422</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -36132,7 +36132,7 @@
         <v>538.9211158302268</v>
       </c>
       <c r="N20" t="n">
-        <v>552.301835412911</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O20" t="n">
         <v>508.0530008882191</v>
@@ -36144,7 +36144,7 @@
         <v>250.7943048037195</v>
       </c>
       <c r="R20" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222434</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36357,31 +36357,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K23" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L23" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M23" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N23" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O23" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P23" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q23" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R23" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36436,28 +36436,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K24" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L24" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M24" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N24" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O24" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P24" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q24" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36515,28 +36515,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>11.94217529034289</v>
+        <v>11.94217529034286</v>
       </c>
       <c r="K25" t="n">
-        <v>99.30389319966704</v>
+        <v>99.30389319966699</v>
       </c>
       <c r="L25" t="n">
-        <v>157.2826706286437</v>
+        <v>157.2826706286436</v>
       </c>
       <c r="M25" t="n">
-        <v>169.1237184840382</v>
+        <v>169.1237184840381</v>
       </c>
       <c r="N25" t="n">
-        <v>173.0392293230783</v>
+        <v>173.0392293230782</v>
       </c>
       <c r="O25" t="n">
         <v>139.3114638567573</v>
       </c>
       <c r="P25" t="n">
-        <v>99.95050783106933</v>
+        <v>99.95050783106927</v>
       </c>
       <c r="Q25" t="n">
-        <v>13.0512801601422</v>
+        <v>13.05128016014217</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36694,7 +36694,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q27" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36931,7 +36931,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q30" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37405,7 +37405,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q36" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37566,7 +37566,7 @@
         <v>250.7943048037195</v>
       </c>
       <c r="R38" t="n">
-        <v>59.61319854222526</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
